--- a/Excel File/task40.xlsx
+++ b/Excel File/task40.xlsx
@@ -465,16 +465,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="C2" t="n">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D2" t="n">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="E2" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -484,16 +484,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="C3" t="n">
-        <v>57</v>
+        <v>173</v>
       </c>
       <c r="D3" t="n">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E3" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
@@ -503,16 +503,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="C4" t="n">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="D4" t="n">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -522,16 +522,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="C5" t="n">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D5" t="n">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="E5" t="n">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">
@@ -541,13 +541,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D6" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="E6" t="n">
         <v>20</v>
@@ -560,16 +560,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C7" t="n">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="D7" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>31</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
@@ -579,16 +579,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>198</v>
+        <v>147</v>
       </c>
       <c r="D8" t="n">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="E8" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -598,16 +598,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C9" t="n">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="D9" t="n">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="E9" t="n">
-        <v>43</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10">
@@ -617,16 +617,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="C10" t="n">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="D10" t="n">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="E10" t="n">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -636,16 +636,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="D11" t="n">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="E11" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="C12" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D12" t="n">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="E12" t="n">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13">
@@ -674,16 +674,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C13" t="n">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="D13" t="n">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="E13" t="n">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C14" t="n">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="D14" t="n">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="E14" t="n">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
@@ -712,16 +712,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="C15" t="n">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="D15" t="n">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="E15" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16">
@@ -731,16 +731,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="C16" t="n">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="D16" t="n">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="E16" t="n">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17">
@@ -750,16 +750,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="C17" t="n">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D17" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E17" t="n">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
@@ -769,16 +769,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="C18" t="n">
-        <v>166</v>
+        <v>109</v>
       </c>
       <c r="D18" t="n">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="E18" t="n">
-        <v>86</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19">
@@ -788,16 +788,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C19" t="n">
-        <v>91</v>
+        <v>140</v>
       </c>
       <c r="D19" t="n">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="E19" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20">
@@ -807,16 +807,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" t="n">
-        <v>106</v>
+        <v>168</v>
       </c>
       <c r="D20" t="n">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="E20" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21">
@@ -826,16 +826,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="C21" t="n">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="D21" t="n">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="E21" t="n">
-        <v>27</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22">
@@ -845,16 +845,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C22" t="n">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="D22" t="n">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="E22" t="n">
-        <v>100</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
@@ -864,16 +864,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C23" t="n">
-        <v>177</v>
+        <v>63</v>
       </c>
       <c r="D23" t="n">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E23" t="n">
-        <v>48</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24">
@@ -883,16 +883,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C24" t="n">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="D24" t="n">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E24" t="n">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25">
@@ -902,16 +902,16 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>28</v>
+      </c>
+      <c r="C25" t="n">
+        <v>72</v>
+      </c>
+      <c r="D25" t="n">
+        <v>98</v>
+      </c>
+      <c r="E25" t="n">
         <v>38</v>
-      </c>
-      <c r="C25" t="n">
-        <v>147</v>
-      </c>
-      <c r="D25" t="n">
-        <v>45</v>
-      </c>
-      <c r="E25" t="n">
-        <v>70</v>
       </c>
     </row>
     <row r="26">
@@ -921,16 +921,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="C26" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="D26" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E26" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27">
@@ -940,16 +940,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D27" t="n">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="E27" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28">
@@ -959,16 +959,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C28" t="n">
-        <v>184</v>
+        <v>56</v>
       </c>
       <c r="D28" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E28" t="n">
-        <v>11</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29">
@@ -978,16 +978,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C29" t="n">
-        <v>200</v>
+        <v>88</v>
       </c>
       <c r="D29" t="n">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="E29" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30">
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="C30" t="n">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="D30" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E30" t="n">
         <v>39</v>
@@ -1016,16 +1016,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C31" t="n">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="D31" t="n">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E31" t="n">
-        <v>25</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32">
@@ -1035,16 +1035,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="C32" t="n">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="D32" t="n">
+        <v>29</v>
+      </c>
+      <c r="E32" t="n">
         <v>100</v>
-      </c>
-      <c r="E32" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="33">
@@ -1054,16 +1054,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="C33" t="n">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="D33" t="n">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="E33" t="n">
-        <v>91</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34">
@@ -1073,16 +1073,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="D34" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E34" t="n">
-        <v>73</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35">
@@ -1092,16 +1092,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="C35" t="n">
-        <v>174</v>
+        <v>110</v>
       </c>
       <c r="D35" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E35" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="C36" t="n">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="D36" t="n">
+        <v>63</v>
+      </c>
+      <c r="E36" t="n">
         <v>15</v>
-      </c>
-      <c r="E36" t="n">
-        <v>48</v>
       </c>
     </row>
     <row r="37">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="C37" t="n">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="D37" t="n">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="E37" t="n">
-        <v>27</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38">
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C38" t="n">
-        <v>105</v>
+        <v>188</v>
       </c>
       <c r="D38" t="n">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="E38" t="n">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39">
@@ -1168,16 +1168,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="C39" t="n">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D39" t="n">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="E39" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40">
@@ -1187,16 +1187,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="D40" t="n">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="E40" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41">
@@ -1206,16 +1206,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="C41" t="n">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D41" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E41" t="n">
-        <v>34</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1266,16 +1266,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3754</v>
+        <v>4125</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8044</v>
+        <v>0.909</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02088</v>
+        <v>0.03853</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0571</v>
+        <v>0.0688</v>
       </c>
     </row>
     <row r="3">
@@ -1285,16 +1285,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3585</v>
+        <v>4677</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9433</v>
+        <v>0.8433</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0319</v>
+        <v>0.02381</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0806</v>
+        <v>0.0616</v>
       </c>
     </row>
     <row r="4">
@@ -1304,16 +1304,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4617</v>
+        <v>5000</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8208</v>
+        <v>0.718</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04455</v>
+        <v>0.04077</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0563</v>
+        <v>0.0818</v>
       </c>
     </row>
     <row r="5">
@@ -1323,16 +1323,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1097</v>
+        <v>1462</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2464</v>
+        <v>0.2764</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02723</v>
+        <v>0.01221</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0105</v>
+        <v>0.0181</v>
       </c>
     </row>
     <row r="6">
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>873</v>
+        <v>1115</v>
       </c>
       <c r="C6" t="n">
-        <v>0.136</v>
+        <v>0.1642</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01474</v>
+        <v>0.01654</v>
       </c>
       <c r="E6" t="n">
-        <v>0.018</v>
+        <v>0.0154</v>
       </c>
     </row>
     <row r="7">
@@ -1361,16 +1361,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1054</v>
+        <v>1244</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1142</v>
+        <v>0.2907</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01232</v>
+        <v>0.01292</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0183</v>
+        <v>0.0134</v>
       </c>
     </row>
     <row r="8">
@@ -1380,16 +1380,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1420</v>
+        <v>1326</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3196</v>
+        <v>0.1738</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01802</v>
+        <v>0.01115</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0113</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="9">
@@ -1399,16 +1399,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1106</v>
+        <v>1135</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3844</v>
+        <v>0.2568</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01195</v>
+        <v>0.02431</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0181</v>
+        <v>0.0167</v>
       </c>
     </row>
     <row r="10">
@@ -1418,16 +1418,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1479</v>
+        <v>740</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1576</v>
+        <v>0.1913</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0244</v>
+        <v>0.02485</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0129</v>
+        <v>0.0125</v>
       </c>
     </row>
     <row r="11">
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>645</v>
+        <v>1309</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2805</v>
+        <v>0.2551</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01828</v>
+        <v>0.02693</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0115</v>
+        <v>0.0124</v>
       </c>
     </row>
     <row r="12">
@@ -1456,16 +1456,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>963</v>
+        <v>843</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1267</v>
+        <v>0.1021</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02263</v>
+        <v>0.01185</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0135</v>
+        <v>0.0104</v>
       </c>
     </row>
     <row r="13">
@@ -1475,16 +1475,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>635</v>
+        <v>909</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2751</v>
+        <v>0.1039</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01915</v>
+        <v>0.01095</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0188</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="14">
@@ -1494,16 +1494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1141</v>
+        <v>780</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2779</v>
+        <v>0.3319</v>
       </c>
       <c r="D14" t="n">
-        <v>0.02738</v>
+        <v>0.0213</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0121</v>
+        <v>0.014</v>
       </c>
     </row>
   </sheetData>
@@ -1735,124 +1735,124 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.6553</v>
+        <v>20.6061</v>
       </c>
       <c r="C3" t="n">
-        <v>5.594</v>
+        <v>12.8485</v>
       </c>
       <c r="D3" t="n">
-        <v>11.9872</v>
+        <v>16.9697</v>
       </c>
       <c r="E3" t="n">
-        <v>18.9132</v>
+        <v>12.3636</v>
       </c>
       <c r="F3" t="n">
-        <v>24.5072</v>
+        <v>0.2424</v>
       </c>
       <c r="G3" t="n">
-        <v>9.5898</v>
+        <v>13.5758</v>
       </c>
       <c r="H3" t="n">
-        <v>5.594</v>
+        <v>1.4545</v>
       </c>
       <c r="I3" t="n">
-        <v>19.1795</v>
+        <v>14.5455</v>
       </c>
       <c r="J3" t="n">
-        <v>8.7906</v>
+        <v>16</v>
       </c>
       <c r="K3" t="n">
-        <v>3.7294</v>
+        <v>6.0606</v>
       </c>
       <c r="L3" t="n">
-        <v>12.7864</v>
+        <v>22.0606</v>
       </c>
       <c r="M3" t="n">
-        <v>25.5727</v>
+        <v>22.0606</v>
       </c>
       <c r="N3" t="n">
-        <v>12.52</v>
+        <v>8.7273</v>
       </c>
       <c r="O3" t="n">
-        <v>20.2451</v>
+        <v>2.9091</v>
       </c>
       <c r="P3" t="n">
-        <v>0.2664</v>
+        <v>15.2727</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.3277</v>
+        <v>22.7879</v>
       </c>
       <c r="R3" t="n">
-        <v>24.2408</v>
+        <v>2.9091</v>
       </c>
       <c r="S3" t="n">
-        <v>21.3106</v>
+        <v>11.8788</v>
       </c>
       <c r="T3" t="n">
-        <v>13.5855</v>
+        <v>12.6061</v>
       </c>
       <c r="U3" t="n">
-        <v>4.2621</v>
+        <v>22.303</v>
       </c>
       <c r="V3" t="n">
-        <v>20.7778</v>
+        <v>15.0303</v>
       </c>
       <c r="W3" t="n">
-        <v>5.0613</v>
+        <v>7.0303</v>
       </c>
       <c r="X3" t="n">
-        <v>11.4544</v>
+        <v>11.3939</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.1225</v>
+        <v>6.7879</v>
       </c>
       <c r="Z3" t="n">
-        <v>26.6383</v>
+        <v>13.5758</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.1097</v>
+        <v>0.2424</v>
       </c>
       <c r="AB3" t="n">
-        <v>23.4417</v>
+        <v>22.7879</v>
       </c>
       <c r="AC3" t="n">
-        <v>17.0485</v>
+        <v>20.3636</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.9259</v>
+        <v>17.697</v>
       </c>
       <c r="AE3" t="n">
-        <v>17.3149</v>
+        <v>13.5758</v>
       </c>
       <c r="AF3" t="n">
-        <v>16.2493</v>
+        <v>5.5758</v>
       </c>
       <c r="AG3" t="n">
-        <v>19.7123</v>
+        <v>5.3333</v>
       </c>
       <c r="AH3" t="n">
-        <v>18.114</v>
+        <v>0.2424</v>
       </c>
       <c r="AI3" t="n">
-        <v>9.856199999999999</v>
+        <v>14.303</v>
       </c>
       <c r="AJ3" t="n">
-        <v>3.1966</v>
+        <v>17.9394</v>
       </c>
       <c r="AK3" t="n">
-        <v>3.7294</v>
+        <v>17.9394</v>
       </c>
       <c r="AL3" t="n">
-        <v>5.8604</v>
+        <v>10.6667</v>
       </c>
       <c r="AM3" t="n">
-        <v>21.8434</v>
+        <v>14.0606</v>
       </c>
       <c r="AN3" t="n">
-        <v>7.7251</v>
+        <v>12.6061</v>
       </c>
       <c r="AO3" t="n">
-        <v>11.4544</v>
+        <v>19.6364</v>
       </c>
     </row>
     <row r="4">
@@ -1862,124 +1862,124 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.1576</v>
+        <v>18.174</v>
       </c>
       <c r="C4" t="n">
-        <v>5.8577</v>
+        <v>11.3321</v>
       </c>
       <c r="D4" t="n">
-        <v>12.5523</v>
+        <v>14.9669</v>
       </c>
       <c r="E4" t="n">
-        <v>19.8047</v>
+        <v>10.9044</v>
       </c>
       <c r="F4" t="n">
-        <v>25.6625</v>
+        <v>0.2138</v>
       </c>
       <c r="G4" t="n">
-        <v>10.0418</v>
+        <v>11.9735</v>
       </c>
       <c r="H4" t="n">
-        <v>5.8577</v>
+        <v>1.2829</v>
       </c>
       <c r="I4" t="n">
-        <v>20.0837</v>
+        <v>12.8287</v>
       </c>
       <c r="J4" t="n">
-        <v>9.205</v>
+        <v>14.1116</v>
       </c>
       <c r="K4" t="n">
-        <v>3.9052</v>
+        <v>5.3453</v>
       </c>
       <c r="L4" t="n">
-        <v>13.3891</v>
+        <v>19.4569</v>
       </c>
       <c r="M4" t="n">
-        <v>26.7782</v>
+        <v>19.4569</v>
       </c>
       <c r="N4" t="n">
-        <v>13.1102</v>
+        <v>7.6972</v>
       </c>
       <c r="O4" t="n">
-        <v>21.1994</v>
+        <v>2.5657</v>
       </c>
       <c r="P4" t="n">
-        <v>0.2789</v>
+        <v>13.4702</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.5788</v>
+        <v>20.0984</v>
       </c>
       <c r="R4" t="n">
-        <v>25.3835</v>
+        <v>2.5657</v>
       </c>
       <c r="S4" t="n">
-        <v>22.3152</v>
+        <v>10.4768</v>
       </c>
       <c r="T4" t="n">
-        <v>14.2259</v>
+        <v>11.1182</v>
       </c>
       <c r="U4" t="n">
-        <v>4.463</v>
+        <v>19.6707</v>
       </c>
       <c r="V4" t="n">
-        <v>21.7573</v>
+        <v>13.2564</v>
       </c>
       <c r="W4" t="n">
-        <v>5.2999</v>
+        <v>6.2006</v>
       </c>
       <c r="X4" t="n">
-        <v>11.9944</v>
+        <v>10.0492</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.5997</v>
+        <v>5.9867</v>
       </c>
       <c r="Z4" t="n">
-        <v>27.894</v>
+        <v>11.9735</v>
       </c>
       <c r="AA4" t="n">
-        <v>23.152</v>
+        <v>0.2138</v>
       </c>
       <c r="AB4" t="n">
-        <v>24.5467</v>
+        <v>20.0984</v>
       </c>
       <c r="AC4" t="n">
-        <v>17.8522</v>
+        <v>17.9602</v>
       </c>
       <c r="AD4" t="n">
-        <v>7.2524</v>
+        <v>15.6083</v>
       </c>
       <c r="AE4" t="n">
-        <v>18.1311</v>
+        <v>11.9735</v>
       </c>
       <c r="AF4" t="n">
-        <v>17.0153</v>
+        <v>4.9177</v>
       </c>
       <c r="AG4" t="n">
-        <v>20.6416</v>
+        <v>4.7039</v>
       </c>
       <c r="AH4" t="n">
-        <v>18.9679</v>
+        <v>0.2138</v>
       </c>
       <c r="AI4" t="n">
-        <v>10.3208</v>
+        <v>12.6149</v>
       </c>
       <c r="AJ4" t="n">
-        <v>3.3473</v>
+        <v>15.8221</v>
       </c>
       <c r="AK4" t="n">
-        <v>3.9052</v>
+        <v>15.8221</v>
       </c>
       <c r="AL4" t="n">
-        <v>6.1367</v>
+        <v>9.4077</v>
       </c>
       <c r="AM4" t="n">
-        <v>22.8731</v>
+        <v>12.4011</v>
       </c>
       <c r="AN4" t="n">
-        <v>8.0893</v>
+        <v>11.1182</v>
       </c>
       <c r="AO4" t="n">
-        <v>11.9944</v>
+        <v>17.3188</v>
       </c>
     </row>
     <row r="5">
@@ -1989,124 +1989,124 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.663600000000001</v>
+        <v>17</v>
       </c>
       <c r="C5" t="n">
-        <v>4.5484</v>
+        <v>10.6</v>
       </c>
       <c r="D5" t="n">
-        <v>9.746600000000001</v>
+        <v>14</v>
       </c>
       <c r="E5" t="n">
-        <v>15.378</v>
+        <v>10.2</v>
       </c>
       <c r="F5" t="n">
-        <v>19.9264</v>
+        <v>0.2</v>
       </c>
       <c r="G5" t="n">
-        <v>7.7973</v>
+        <v>11.2</v>
       </c>
       <c r="H5" t="n">
-        <v>4.5484</v>
+        <v>1.2</v>
       </c>
       <c r="I5" t="n">
-        <v>15.5945</v>
+        <v>12</v>
       </c>
       <c r="J5" t="n">
-        <v>7.1475</v>
+        <v>13.2</v>
       </c>
       <c r="K5" t="n">
-        <v>3.0323</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
-        <v>10.3964</v>
+        <v>18.2</v>
       </c>
       <c r="M5" t="n">
-        <v>20.7927</v>
+        <v>18.2</v>
       </c>
       <c r="N5" t="n">
-        <v>10.1798</v>
+        <v>7.2</v>
       </c>
       <c r="O5" t="n">
-        <v>16.4609</v>
+        <v>2.4</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2166</v>
+        <v>12.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.3318</v>
+        <v>18.8</v>
       </c>
       <c r="R5" t="n">
-        <v>19.7098</v>
+        <v>2.4</v>
       </c>
       <c r="S5" t="n">
-        <v>17.3273</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="T5" t="n">
-        <v>11.0461</v>
+        <v>10.4</v>
       </c>
       <c r="U5" t="n">
-        <v>3.4655</v>
+        <v>18.4</v>
       </c>
       <c r="V5" t="n">
-        <v>16.8941</v>
+        <v>12.4</v>
       </c>
       <c r="W5" t="n">
-        <v>4.1152</v>
+        <v>5.8</v>
       </c>
       <c r="X5" t="n">
-        <v>9.3134</v>
+        <v>9.4</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.230499999999999</v>
+        <v>5.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.6591</v>
+        <v>11.2</v>
       </c>
       <c r="AA5" t="n">
-        <v>17.977</v>
+        <v>0.2</v>
       </c>
       <c r="AB5" t="n">
-        <v>19.06</v>
+        <v>18.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>13.8618</v>
+        <v>16.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>5.6314</v>
+        <v>14.6</v>
       </c>
       <c r="AE5" t="n">
-        <v>14.0784</v>
+        <v>11.2</v>
       </c>
       <c r="AF5" t="n">
-        <v>13.212</v>
+        <v>4.6</v>
       </c>
       <c r="AG5" t="n">
-        <v>16.0277</v>
+        <v>4.4</v>
       </c>
       <c r="AH5" t="n">
-        <v>14.7282</v>
+        <v>0.2</v>
       </c>
       <c r="AI5" t="n">
-        <v>8.0139</v>
+        <v>11.8</v>
       </c>
       <c r="AJ5" t="n">
-        <v>2.5991</v>
+        <v>14.8</v>
       </c>
       <c r="AK5" t="n">
-        <v>3.0323</v>
+        <v>14.8</v>
       </c>
       <c r="AL5" t="n">
-        <v>4.765</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AM5" t="n">
-        <v>17.7605</v>
+        <v>11.6</v>
       </c>
       <c r="AN5" t="n">
-        <v>6.2811</v>
+        <v>10.4</v>
       </c>
       <c r="AO5" t="n">
-        <v>9.3134</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="6">
@@ -2116,124 +2116,124 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36.4631</v>
+        <v>58.1395</v>
       </c>
       <c r="C6" t="n">
-        <v>19.1431</v>
+        <v>36.2517</v>
       </c>
       <c r="D6" t="n">
-        <v>41.021</v>
+        <v>47.8796</v>
       </c>
       <c r="E6" t="n">
-        <v>64.72199999999999</v>
+        <v>34.8837</v>
       </c>
       <c r="F6" t="n">
-        <v>83.8651</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>32.8168</v>
+        <v>38.3037</v>
       </c>
       <c r="H6" t="n">
-        <v>19.1431</v>
+        <v>4.104</v>
       </c>
       <c r="I6" t="n">
-        <v>65.6335</v>
+        <v>41.0397</v>
       </c>
       <c r="J6" t="n">
-        <v>30.082</v>
+        <v>45.1436</v>
       </c>
       <c r="K6" t="n">
-        <v>12.7621</v>
+        <v>17.0999</v>
       </c>
       <c r="L6" t="n">
-        <v>43.7557</v>
+        <v>62.2435</v>
       </c>
       <c r="M6" t="n">
-        <v>87.51139999999999</v>
+        <v>62.2435</v>
       </c>
       <c r="N6" t="n">
-        <v>42.8441</v>
+        <v>24.6238</v>
       </c>
       <c r="O6" t="n">
-        <v>69.2799</v>
+        <v>8.2079</v>
       </c>
       <c r="P6" t="n">
-        <v>0.9116</v>
+        <v>43.0917</v>
       </c>
       <c r="Q6" t="n">
-        <v>18.2315</v>
+        <v>64.2955</v>
       </c>
       <c r="R6" t="n">
-        <v>82.95350000000001</v>
+        <v>8.2079</v>
       </c>
       <c r="S6" t="n">
-        <v>72.92619999999999</v>
+        <v>33.5157</v>
       </c>
       <c r="T6" t="n">
-        <v>46.4904</v>
+        <v>35.5677</v>
       </c>
       <c r="U6" t="n">
-        <v>14.5852</v>
+        <v>62.9275</v>
       </c>
       <c r="V6" t="n">
-        <v>71.10299999999999</v>
+        <v>42.4077</v>
       </c>
       <c r="W6" t="n">
-        <v>17.32</v>
+        <v>19.8358</v>
       </c>
       <c r="X6" t="n">
-        <v>39.1978</v>
+        <v>32.1477</v>
       </c>
       <c r="Y6" t="n">
-        <v>34.6399</v>
+        <v>19.1518</v>
       </c>
       <c r="Z6" t="n">
-        <v>91.15770000000001</v>
+        <v>38.3037</v>
       </c>
       <c r="AA6" t="n">
-        <v>75.6609</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="AB6" t="n">
-        <v>80.2188</v>
+        <v>64.2955</v>
       </c>
       <c r="AC6" t="n">
-        <v>58.3409</v>
+        <v>57.4555</v>
       </c>
       <c r="AD6" t="n">
-        <v>23.701</v>
+        <v>49.9316</v>
       </c>
       <c r="AE6" t="n">
-        <v>59.2525</v>
+        <v>38.3037</v>
       </c>
       <c r="AF6" t="n">
-        <v>55.6062</v>
+        <v>15.7319</v>
       </c>
       <c r="AG6" t="n">
-        <v>67.4567</v>
+        <v>15.0479</v>
       </c>
       <c r="AH6" t="n">
-        <v>61.9872</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="AI6" t="n">
-        <v>33.7284</v>
+        <v>40.3557</v>
       </c>
       <c r="AJ6" t="n">
-        <v>10.9389</v>
+        <v>50.6156</v>
       </c>
       <c r="AK6" t="n">
-        <v>12.7621</v>
+        <v>50.6156</v>
       </c>
       <c r="AL6" t="n">
-        <v>20.0547</v>
+        <v>30.0958</v>
       </c>
       <c r="AM6" t="n">
-        <v>74.74930000000001</v>
+        <v>39.6717</v>
       </c>
       <c r="AN6" t="n">
-        <v>26.4357</v>
+        <v>35.5677</v>
       </c>
       <c r="AO6" t="n">
-        <v>39.1978</v>
+        <v>55.4036</v>
       </c>
     </row>
     <row r="7">
@@ -2243,124 +2243,124 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>45.819</v>
+        <v>76.2332</v>
       </c>
       <c r="C7" t="n">
-        <v>24.055</v>
+        <v>47.5336</v>
       </c>
       <c r="D7" t="n">
-        <v>51.5464</v>
+        <v>62.7803</v>
       </c>
       <c r="E7" t="n">
-        <v>81.3288</v>
+        <v>45.7399</v>
       </c>
       <c r="F7" t="n">
-        <v>105.3837</v>
+        <v>0.8969</v>
       </c>
       <c r="G7" t="n">
-        <v>41.2371</v>
+        <v>50.2242</v>
       </c>
       <c r="H7" t="n">
-        <v>24.055</v>
+        <v>5.3812</v>
       </c>
       <c r="I7" t="n">
-        <v>82.4742</v>
+        <v>53.8117</v>
       </c>
       <c r="J7" t="n">
-        <v>37.8007</v>
+        <v>59.1928</v>
       </c>
       <c r="K7" t="n">
-        <v>16.0367</v>
+        <v>22.4215</v>
       </c>
       <c r="L7" t="n">
-        <v>54.9828</v>
+        <v>81.6143</v>
       </c>
       <c r="M7" t="n">
-        <v>109.9656</v>
+        <v>81.6143</v>
       </c>
       <c r="N7" t="n">
-        <v>53.8373</v>
+        <v>32.287</v>
       </c>
       <c r="O7" t="n">
-        <v>87.0561</v>
+        <v>10.7623</v>
       </c>
       <c r="P7" t="n">
-        <v>1.1455</v>
+        <v>56.5022</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.9095</v>
+        <v>84.3049</v>
       </c>
       <c r="R7" t="n">
-        <v>104.2383</v>
+        <v>10.7623</v>
       </c>
       <c r="S7" t="n">
-        <v>91.63800000000001</v>
+        <v>43.9462</v>
       </c>
       <c r="T7" t="n">
-        <v>58.4192</v>
+        <v>46.6368</v>
       </c>
       <c r="U7" t="n">
-        <v>18.3276</v>
+        <v>82.5112</v>
       </c>
       <c r="V7" t="n">
-        <v>89.3471</v>
+        <v>55.6054</v>
       </c>
       <c r="W7" t="n">
-        <v>21.764</v>
+        <v>26.009</v>
       </c>
       <c r="X7" t="n">
-        <v>49.2554</v>
+        <v>42.1525</v>
       </c>
       <c r="Y7" t="n">
-        <v>43.5281</v>
+        <v>25.1121</v>
       </c>
       <c r="Z7" t="n">
-        <v>114.5475</v>
+        <v>50.2242</v>
       </c>
       <c r="AA7" t="n">
-        <v>95.0745</v>
+        <v>0.8969</v>
       </c>
       <c r="AB7" t="n">
-        <v>100.8018</v>
+        <v>84.3049</v>
       </c>
       <c r="AC7" t="n">
-        <v>73.3104</v>
+        <v>75.33629999999999</v>
       </c>
       <c r="AD7" t="n">
-        <v>29.7824</v>
+        <v>65.4709</v>
       </c>
       <c r="AE7" t="n">
-        <v>74.4559</v>
+        <v>50.2242</v>
       </c>
       <c r="AF7" t="n">
-        <v>69.874</v>
+        <v>20.6278</v>
       </c>
       <c r="AG7" t="n">
-        <v>84.76519999999999</v>
+        <v>19.7309</v>
       </c>
       <c r="AH7" t="n">
-        <v>77.89230000000001</v>
+        <v>0.8969</v>
       </c>
       <c r="AI7" t="n">
-        <v>42.3826</v>
+        <v>52.9148</v>
       </c>
       <c r="AJ7" t="n">
-        <v>13.7457</v>
+        <v>66.3677</v>
       </c>
       <c r="AK7" t="n">
-        <v>16.0367</v>
+        <v>66.3677</v>
       </c>
       <c r="AL7" t="n">
-        <v>25.2005</v>
+        <v>39.4619</v>
       </c>
       <c r="AM7" t="n">
-        <v>93.929</v>
+        <v>52.0179</v>
       </c>
       <c r="AN7" t="n">
-        <v>33.2188</v>
+        <v>46.6368</v>
       </c>
       <c r="AO7" t="n">
-        <v>49.2554</v>
+        <v>72.64570000000001</v>
       </c>
     </row>
     <row r="8">
@@ -2370,124 +2370,124 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>37.9507</v>
+        <v>68.328</v>
       </c>
       <c r="C8" t="n">
-        <v>19.9241</v>
+        <v>42.6045</v>
       </c>
       <c r="D8" t="n">
-        <v>42.6945</v>
+        <v>56.2701</v>
       </c>
       <c r="E8" t="n">
-        <v>67.36239999999999</v>
+        <v>40.9968</v>
       </c>
       <c r="F8" t="n">
-        <v>87.2865</v>
+        <v>0.8038999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>34.1556</v>
+        <v>45.0161</v>
       </c>
       <c r="H8" t="n">
-        <v>19.9241</v>
+        <v>4.8232</v>
       </c>
       <c r="I8" t="n">
-        <v>68.3112</v>
+        <v>48.2315</v>
       </c>
       <c r="J8" t="n">
-        <v>31.3093</v>
+        <v>53.0547</v>
       </c>
       <c r="K8" t="n">
-        <v>13.2827</v>
+        <v>20.0965</v>
       </c>
       <c r="L8" t="n">
-        <v>45.5408</v>
+        <v>73.1511</v>
       </c>
       <c r="M8" t="n">
-        <v>91.08159999999999</v>
+        <v>73.1511</v>
       </c>
       <c r="N8" t="n">
-        <v>44.592</v>
+        <v>28.9389</v>
       </c>
       <c r="O8" t="n">
-        <v>72.1063</v>
+        <v>9.6463</v>
       </c>
       <c r="P8" t="n">
-        <v>0.9488</v>
+        <v>50.6431</v>
       </c>
       <c r="Q8" t="n">
-        <v>18.9753</v>
+        <v>75.56270000000001</v>
       </c>
       <c r="R8" t="n">
-        <v>86.3378</v>
+        <v>9.6463</v>
       </c>
       <c r="S8" t="n">
-        <v>75.90130000000001</v>
+        <v>39.3891</v>
       </c>
       <c r="T8" t="n">
-        <v>48.3871</v>
+        <v>41.8006</v>
       </c>
       <c r="U8" t="n">
-        <v>15.1803</v>
+        <v>73.955</v>
       </c>
       <c r="V8" t="n">
-        <v>74.0038</v>
+        <v>49.8392</v>
       </c>
       <c r="W8" t="n">
-        <v>18.0266</v>
+        <v>23.3119</v>
       </c>
       <c r="X8" t="n">
-        <v>40.797</v>
+        <v>37.7814</v>
       </c>
       <c r="Y8" t="n">
-        <v>36.0531</v>
+        <v>22.508</v>
       </c>
       <c r="Z8" t="n">
-        <v>94.8767</v>
+        <v>45.0161</v>
       </c>
       <c r="AA8" t="n">
-        <v>78.74760000000001</v>
+        <v>0.8038999999999999</v>
       </c>
       <c r="AB8" t="n">
-        <v>83.4915</v>
+        <v>75.56270000000001</v>
       </c>
       <c r="AC8" t="n">
-        <v>60.7211</v>
+        <v>67.5241</v>
       </c>
       <c r="AD8" t="n">
-        <v>24.6679</v>
+        <v>58.6817</v>
       </c>
       <c r="AE8" t="n">
-        <v>61.6698</v>
+        <v>45.0161</v>
       </c>
       <c r="AF8" t="n">
-        <v>57.8748</v>
+        <v>18.4887</v>
       </c>
       <c r="AG8" t="n">
-        <v>70.20869999999999</v>
+        <v>17.6849</v>
       </c>
       <c r="AH8" t="n">
-        <v>64.51609999999999</v>
+        <v>0.8038999999999999</v>
       </c>
       <c r="AI8" t="n">
-        <v>35.1044</v>
+        <v>47.4277</v>
       </c>
       <c r="AJ8" t="n">
-        <v>11.3852</v>
+        <v>59.4855</v>
       </c>
       <c r="AK8" t="n">
-        <v>13.2827</v>
+        <v>59.4855</v>
       </c>
       <c r="AL8" t="n">
-        <v>20.8729</v>
+        <v>35.3698</v>
       </c>
       <c r="AM8" t="n">
-        <v>77.7989</v>
+        <v>46.6238</v>
       </c>
       <c r="AN8" t="n">
-        <v>27.5142</v>
+        <v>41.8006</v>
       </c>
       <c r="AO8" t="n">
-        <v>40.797</v>
+        <v>65.1125</v>
       </c>
     </row>
     <row r="9">
@@ -2497,124 +2497,124 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28.169</v>
+        <v>64.1026</v>
       </c>
       <c r="C9" t="n">
-        <v>14.7887</v>
+        <v>39.9698</v>
       </c>
       <c r="D9" t="n">
-        <v>31.6901</v>
+        <v>52.7903</v>
       </c>
       <c r="E9" t="n">
-        <v>50</v>
+        <v>38.4615</v>
       </c>
       <c r="F9" t="n">
-        <v>64.78870000000001</v>
+        <v>0.7541</v>
       </c>
       <c r="G9" t="n">
-        <v>25.3521</v>
+        <v>42.2323</v>
       </c>
       <c r="H9" t="n">
-        <v>14.7887</v>
+        <v>4.5249</v>
       </c>
       <c r="I9" t="n">
-        <v>50.7042</v>
+        <v>45.2489</v>
       </c>
       <c r="J9" t="n">
-        <v>23.2394</v>
+        <v>49.7738</v>
       </c>
       <c r="K9" t="n">
-        <v>9.8592</v>
+        <v>18.8537</v>
       </c>
       <c r="L9" t="n">
-        <v>33.8028</v>
+        <v>68.6275</v>
       </c>
       <c r="M9" t="n">
-        <v>67.6056</v>
+        <v>68.6275</v>
       </c>
       <c r="N9" t="n">
-        <v>33.0986</v>
+        <v>27.1493</v>
       </c>
       <c r="O9" t="n">
-        <v>53.5211</v>
+        <v>9.049799999999999</v>
       </c>
       <c r="P9" t="n">
-        <v>0.7042</v>
+        <v>47.5113</v>
       </c>
       <c r="Q9" t="n">
-        <v>14.0845</v>
+        <v>70.8899</v>
       </c>
       <c r="R9" t="n">
-        <v>64.08450000000001</v>
+        <v>9.049799999999999</v>
       </c>
       <c r="S9" t="n">
-        <v>56.338</v>
+        <v>36.9532</v>
       </c>
       <c r="T9" t="n">
-        <v>35.9155</v>
+        <v>39.2157</v>
       </c>
       <c r="U9" t="n">
-        <v>11.2676</v>
+        <v>69.38160000000001</v>
       </c>
       <c r="V9" t="n">
-        <v>54.9296</v>
+        <v>46.7572</v>
       </c>
       <c r="W9" t="n">
-        <v>13.3803</v>
+        <v>21.8703</v>
       </c>
       <c r="X9" t="n">
-        <v>30.2817</v>
+        <v>35.4449</v>
       </c>
       <c r="Y9" t="n">
-        <v>26.7606</v>
+        <v>21.1161</v>
       </c>
       <c r="Z9" t="n">
-        <v>70.4225</v>
+        <v>42.2323</v>
       </c>
       <c r="AA9" t="n">
-        <v>58.4507</v>
+        <v>0.7541</v>
       </c>
       <c r="AB9" t="n">
-        <v>61.9718</v>
+        <v>70.8899</v>
       </c>
       <c r="AC9" t="n">
-        <v>45.0704</v>
+        <v>63.3484</v>
       </c>
       <c r="AD9" t="n">
-        <v>18.3099</v>
+        <v>55.0528</v>
       </c>
       <c r="AE9" t="n">
-        <v>45.7746</v>
+        <v>42.2323</v>
       </c>
       <c r="AF9" t="n">
-        <v>42.9577</v>
+        <v>17.3454</v>
       </c>
       <c r="AG9" t="n">
-        <v>52.1127</v>
+        <v>16.5913</v>
       </c>
       <c r="AH9" t="n">
-        <v>47.8873</v>
+        <v>0.7541</v>
       </c>
       <c r="AI9" t="n">
-        <v>26.0563</v>
+        <v>44.4947</v>
       </c>
       <c r="AJ9" t="n">
-        <v>8.450699999999999</v>
+        <v>55.8069</v>
       </c>
       <c r="AK9" t="n">
-        <v>9.8592</v>
+        <v>55.8069</v>
       </c>
       <c r="AL9" t="n">
-        <v>15.493</v>
+        <v>33.1825</v>
       </c>
       <c r="AM9" t="n">
-        <v>57.7465</v>
+        <v>43.7406</v>
       </c>
       <c r="AN9" t="n">
-        <v>20.4225</v>
+        <v>39.2157</v>
       </c>
       <c r="AO9" t="n">
-        <v>30.2817</v>
+        <v>61.086</v>
       </c>
     </row>
     <row r="10">
@@ -2624,124 +2624,124 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>36.1664</v>
+        <v>74.8899</v>
       </c>
       <c r="C10" t="n">
-        <v>18.9873</v>
+        <v>46.696</v>
       </c>
       <c r="D10" t="n">
-        <v>40.6872</v>
+        <v>61.674</v>
       </c>
       <c r="E10" t="n">
-        <v>64.1953</v>
+        <v>44.9339</v>
       </c>
       <c r="F10" t="n">
-        <v>83.18259999999999</v>
+        <v>0.8811</v>
       </c>
       <c r="G10" t="n">
-        <v>32.5497</v>
+        <v>49.3392</v>
       </c>
       <c r="H10" t="n">
-        <v>18.9873</v>
+        <v>5.2863</v>
       </c>
       <c r="I10" t="n">
-        <v>65.09950000000001</v>
+        <v>52.8634</v>
       </c>
       <c r="J10" t="n">
-        <v>29.8373</v>
+        <v>58.1498</v>
       </c>
       <c r="K10" t="n">
-        <v>12.6582</v>
+        <v>22.0264</v>
       </c>
       <c r="L10" t="n">
-        <v>43.3996</v>
+        <v>80.17619999999999</v>
       </c>
       <c r="M10" t="n">
-        <v>86.7993</v>
+        <v>80.17619999999999</v>
       </c>
       <c r="N10" t="n">
-        <v>42.4955</v>
+        <v>31.7181</v>
       </c>
       <c r="O10" t="n">
-        <v>68.7161</v>
+        <v>10.5727</v>
       </c>
       <c r="P10" t="n">
-        <v>0.9042</v>
+        <v>55.5066</v>
       </c>
       <c r="Q10" t="n">
-        <v>18.0832</v>
+        <v>82.8194</v>
       </c>
       <c r="R10" t="n">
-        <v>82.27849999999999</v>
+        <v>10.5727</v>
       </c>
       <c r="S10" t="n">
-        <v>72.3327</v>
+        <v>43.1718</v>
       </c>
       <c r="T10" t="n">
-        <v>46.1121</v>
+        <v>45.815</v>
       </c>
       <c r="U10" t="n">
-        <v>14.4665</v>
+        <v>81.0573</v>
       </c>
       <c r="V10" t="n">
-        <v>70.5244</v>
+        <v>54.6256</v>
       </c>
       <c r="W10" t="n">
-        <v>17.179</v>
+        <v>25.5507</v>
       </c>
       <c r="X10" t="n">
-        <v>38.8788</v>
+        <v>41.4097</v>
       </c>
       <c r="Y10" t="n">
-        <v>34.358</v>
+        <v>24.6696</v>
       </c>
       <c r="Z10" t="n">
-        <v>90.41589999999999</v>
+        <v>49.3392</v>
       </c>
       <c r="AA10" t="n">
-        <v>75.04519999999999</v>
+        <v>0.8811</v>
       </c>
       <c r="AB10" t="n">
-        <v>79.566</v>
+        <v>82.8194</v>
       </c>
       <c r="AC10" t="n">
-        <v>57.8662</v>
+        <v>74.00879999999999</v>
       </c>
       <c r="AD10" t="n">
-        <v>23.5081</v>
+        <v>64.3172</v>
       </c>
       <c r="AE10" t="n">
-        <v>58.7703</v>
+        <v>49.3392</v>
       </c>
       <c r="AF10" t="n">
-        <v>55.1537</v>
+        <v>20.2643</v>
       </c>
       <c r="AG10" t="n">
-        <v>66.90779999999999</v>
+        <v>19.3833</v>
       </c>
       <c r="AH10" t="n">
-        <v>61.4828</v>
+        <v>0.8811</v>
       </c>
       <c r="AI10" t="n">
-        <v>33.4539</v>
+        <v>51.9824</v>
       </c>
       <c r="AJ10" t="n">
-        <v>10.8499</v>
+        <v>65.1982</v>
       </c>
       <c r="AK10" t="n">
-        <v>12.6582</v>
+        <v>65.1982</v>
       </c>
       <c r="AL10" t="n">
-        <v>19.8915</v>
+        <v>38.7665</v>
       </c>
       <c r="AM10" t="n">
-        <v>74.14100000000001</v>
+        <v>51.1013</v>
       </c>
       <c r="AN10" t="n">
-        <v>26.2206</v>
+        <v>45.815</v>
       </c>
       <c r="AO10" t="n">
-        <v>38.8788</v>
+        <v>71.3656</v>
       </c>
     </row>
     <row r="11">
@@ -2751,124 +2751,124 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>27.0453</v>
+        <v>114.8649</v>
       </c>
       <c r="C11" t="n">
-        <v>14.1988</v>
+        <v>71.6216</v>
       </c>
       <c r="D11" t="n">
-        <v>30.426</v>
+        <v>94.5946</v>
       </c>
       <c r="E11" t="n">
-        <v>48.0054</v>
+        <v>68.91889999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>62.2042</v>
+        <v>1.3514</v>
       </c>
       <c r="G11" t="n">
-        <v>24.3408</v>
+        <v>75.67570000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>14.1988</v>
+        <v>8.1081</v>
       </c>
       <c r="I11" t="n">
-        <v>48.6815</v>
+        <v>81.08110000000001</v>
       </c>
       <c r="J11" t="n">
-        <v>22.3124</v>
+        <v>89.1892</v>
       </c>
       <c r="K11" t="n">
-        <v>9.4659</v>
+        <v>33.7838</v>
       </c>
       <c r="L11" t="n">
-        <v>32.4544</v>
+        <v>122.973</v>
       </c>
       <c r="M11" t="n">
-        <v>64.9087</v>
+        <v>122.973</v>
       </c>
       <c r="N11" t="n">
-        <v>31.7782</v>
+        <v>48.6486</v>
       </c>
       <c r="O11" t="n">
-        <v>51.3861</v>
+        <v>16.2162</v>
       </c>
       <c r="P11" t="n">
-        <v>0.6761</v>
+        <v>85.13509999999999</v>
       </c>
       <c r="Q11" t="n">
-        <v>13.5227</v>
+        <v>127.027</v>
       </c>
       <c r="R11" t="n">
-        <v>61.5281</v>
+        <v>16.2162</v>
       </c>
       <c r="S11" t="n">
-        <v>54.0906</v>
+        <v>66.2162</v>
       </c>
       <c r="T11" t="n">
-        <v>34.4828</v>
+        <v>70.27030000000001</v>
       </c>
       <c r="U11" t="n">
-        <v>10.8181</v>
+        <v>124.3243</v>
       </c>
       <c r="V11" t="n">
-        <v>52.7383</v>
+        <v>83.7838</v>
       </c>
       <c r="W11" t="n">
-        <v>12.8465</v>
+        <v>39.1892</v>
       </c>
       <c r="X11" t="n">
-        <v>29.0737</v>
+        <v>63.5135</v>
       </c>
       <c r="Y11" t="n">
-        <v>25.693</v>
+        <v>37.8378</v>
       </c>
       <c r="Z11" t="n">
-        <v>67.6133</v>
+        <v>75.67570000000001</v>
       </c>
       <c r="AA11" t="n">
-        <v>56.119</v>
+        <v>1.3514</v>
       </c>
       <c r="AB11" t="n">
-        <v>59.4997</v>
+        <v>127.027</v>
       </c>
       <c r="AC11" t="n">
-        <v>43.2725</v>
+        <v>113.5135</v>
       </c>
       <c r="AD11" t="n">
-        <v>17.5794</v>
+        <v>98.6486</v>
       </c>
       <c r="AE11" t="n">
-        <v>43.9486</v>
+        <v>75.67570000000001</v>
       </c>
       <c r="AF11" t="n">
-        <v>41.2441</v>
+        <v>31.0811</v>
       </c>
       <c r="AG11" t="n">
-        <v>50.0338</v>
+        <v>29.7297</v>
       </c>
       <c r="AH11" t="n">
-        <v>45.977</v>
+        <v>1.3514</v>
       </c>
       <c r="AI11" t="n">
-        <v>25.0169</v>
+        <v>79.72969999999999</v>
       </c>
       <c r="AJ11" t="n">
-        <v>8.1136</v>
+        <v>100</v>
       </c>
       <c r="AK11" t="n">
-        <v>9.4659</v>
+        <v>100</v>
       </c>
       <c r="AL11" t="n">
-        <v>14.8749</v>
+        <v>59.4595</v>
       </c>
       <c r="AM11" t="n">
-        <v>55.4429</v>
+        <v>78.3784</v>
       </c>
       <c r="AN11" t="n">
-        <v>19.6078</v>
+        <v>70.27030000000001</v>
       </c>
       <c r="AO11" t="n">
-        <v>29.0737</v>
+        <v>109.4595</v>
       </c>
     </row>
     <row r="12">
@@ -2878,124 +2878,124 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>62.0155</v>
+        <v>64.93510000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>32.5581</v>
+        <v>40.4889</v>
       </c>
       <c r="D12" t="n">
-        <v>69.76739999999999</v>
+        <v>53.4759</v>
       </c>
       <c r="E12" t="n">
-        <v>110.0775</v>
+        <v>38.961</v>
       </c>
       <c r="F12" t="n">
-        <v>142.6357</v>
+        <v>0.7639</v>
       </c>
       <c r="G12" t="n">
-        <v>55.814</v>
+        <v>42.7807</v>
       </c>
       <c r="H12" t="n">
-        <v>32.5581</v>
+        <v>4.5837</v>
       </c>
       <c r="I12" t="n">
-        <v>111.6279</v>
+        <v>45.8365</v>
       </c>
       <c r="J12" t="n">
-        <v>51.1628</v>
+        <v>50.4202</v>
       </c>
       <c r="K12" t="n">
-        <v>21.7054</v>
+        <v>19.0985</v>
       </c>
       <c r="L12" t="n">
-        <v>74.4186</v>
+        <v>69.5187</v>
       </c>
       <c r="M12" t="n">
-        <v>148.8372</v>
+        <v>69.5187</v>
       </c>
       <c r="N12" t="n">
-        <v>72.8682</v>
+        <v>27.5019</v>
       </c>
       <c r="O12" t="n">
-        <v>117.8295</v>
+        <v>9.167299999999999</v>
       </c>
       <c r="P12" t="n">
-        <v>1.5504</v>
+        <v>48.1283</v>
       </c>
       <c r="Q12" t="n">
-        <v>31.0078</v>
+        <v>71.8105</v>
       </c>
       <c r="R12" t="n">
-        <v>141.0853</v>
+        <v>9.167299999999999</v>
       </c>
       <c r="S12" t="n">
-        <v>124.031</v>
+        <v>37.4332</v>
       </c>
       <c r="T12" t="n">
-        <v>79.0698</v>
+        <v>39.725</v>
       </c>
       <c r="U12" t="n">
-        <v>24.8062</v>
+        <v>70.28270000000001</v>
       </c>
       <c r="V12" t="n">
-        <v>120.9302</v>
+        <v>47.3644</v>
       </c>
       <c r="W12" t="n">
-        <v>29.4574</v>
+        <v>22.1543</v>
       </c>
       <c r="X12" t="n">
-        <v>66.66670000000001</v>
+        <v>35.9053</v>
       </c>
       <c r="Y12" t="n">
-        <v>58.9147</v>
+        <v>21.3904</v>
       </c>
       <c r="Z12" t="n">
-        <v>155.0388</v>
+        <v>42.7807</v>
       </c>
       <c r="AA12" t="n">
-        <v>128.6822</v>
+        <v>0.7639</v>
       </c>
       <c r="AB12" t="n">
-        <v>136.4341</v>
+        <v>71.8105</v>
       </c>
       <c r="AC12" t="n">
-        <v>99.2248</v>
+        <v>64.1711</v>
       </c>
       <c r="AD12" t="n">
-        <v>40.3101</v>
+        <v>55.7678</v>
       </c>
       <c r="AE12" t="n">
-        <v>100.7752</v>
+        <v>42.7807</v>
       </c>
       <c r="AF12" t="n">
-        <v>94.5736</v>
+        <v>17.5707</v>
       </c>
       <c r="AG12" t="n">
-        <v>114.7287</v>
+        <v>16.8067</v>
       </c>
       <c r="AH12" t="n">
-        <v>105.4264</v>
+        <v>0.7639</v>
       </c>
       <c r="AI12" t="n">
-        <v>57.3643</v>
+        <v>45.0726</v>
       </c>
       <c r="AJ12" t="n">
-        <v>18.6047</v>
+        <v>56.5317</v>
       </c>
       <c r="AK12" t="n">
-        <v>21.7054</v>
+        <v>56.5317</v>
       </c>
       <c r="AL12" t="n">
-        <v>34.1085</v>
+        <v>33.6134</v>
       </c>
       <c r="AM12" t="n">
-        <v>127.1318</v>
+        <v>44.3086</v>
       </c>
       <c r="AN12" t="n">
-        <v>44.9612</v>
+        <v>39.725</v>
       </c>
       <c r="AO12" t="n">
-        <v>66.66670000000001</v>
+        <v>61.8793</v>
       </c>
     </row>
     <row r="13">
@@ -3005,124 +3005,124 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.5369</v>
+        <v>100.8304</v>
       </c>
       <c r="C13" t="n">
-        <v>21.8069</v>
+        <v>62.8707</v>
       </c>
       <c r="D13" t="n">
-        <v>46.729</v>
+        <v>83.0368</v>
       </c>
       <c r="E13" t="n">
-        <v>73.72790000000001</v>
+        <v>60.4982</v>
       </c>
       <c r="F13" t="n">
-        <v>95.5348</v>
+        <v>1.1862</v>
       </c>
       <c r="G13" t="n">
-        <v>37.3832</v>
+        <v>66.4294</v>
       </c>
       <c r="H13" t="n">
-        <v>21.8069</v>
+        <v>7.1174</v>
       </c>
       <c r="I13" t="n">
-        <v>74.7664</v>
+        <v>71.17440000000001</v>
       </c>
       <c r="J13" t="n">
-        <v>34.2679</v>
+        <v>78.29179999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>14.5379</v>
+        <v>29.656</v>
       </c>
       <c r="L13" t="n">
-        <v>49.8442</v>
+        <v>107.9478</v>
       </c>
       <c r="M13" t="n">
-        <v>99.6885</v>
+        <v>107.9478</v>
       </c>
       <c r="N13" t="n">
-        <v>48.8058</v>
+        <v>42.7046</v>
       </c>
       <c r="O13" t="n">
-        <v>78.92</v>
+        <v>14.2349</v>
       </c>
       <c r="P13" t="n">
-        <v>1.0384</v>
+        <v>74.73309999999999</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.7684</v>
+        <v>111.5065</v>
       </c>
       <c r="R13" t="n">
-        <v>94.49639999999999</v>
+        <v>14.2349</v>
       </c>
       <c r="S13" t="n">
-        <v>83.0737</v>
+        <v>58.1257</v>
       </c>
       <c r="T13" t="n">
-        <v>52.9595</v>
+        <v>61.6845</v>
       </c>
       <c r="U13" t="n">
-        <v>16.6147</v>
+        <v>109.134</v>
       </c>
       <c r="V13" t="n">
-        <v>80.9969</v>
+        <v>73.54689999999999</v>
       </c>
       <c r="W13" t="n">
-        <v>19.73</v>
+        <v>34.4009</v>
       </c>
       <c r="X13" t="n">
-        <v>44.6521</v>
+        <v>55.7533</v>
       </c>
       <c r="Y13" t="n">
-        <v>39.46</v>
+        <v>33.2147</v>
       </c>
       <c r="Z13" t="n">
-        <v>103.8422</v>
+        <v>66.4294</v>
       </c>
       <c r="AA13" t="n">
-        <v>86.18899999999999</v>
+        <v>1.1862</v>
       </c>
       <c r="AB13" t="n">
-        <v>91.3811</v>
+        <v>111.5065</v>
       </c>
       <c r="AC13" t="n">
-        <v>66.459</v>
+        <v>99.64409999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>26.999</v>
+        <v>86.5955</v>
       </c>
       <c r="AE13" t="n">
-        <v>67.4974</v>
+        <v>66.4294</v>
       </c>
       <c r="AF13" t="n">
-        <v>63.3437</v>
+        <v>27.2835</v>
       </c>
       <c r="AG13" t="n">
-        <v>76.8432</v>
+        <v>26.0973</v>
       </c>
       <c r="AH13" t="n">
-        <v>70.6127</v>
+        <v>1.1862</v>
       </c>
       <c r="AI13" t="n">
-        <v>38.4216</v>
+        <v>69.9881</v>
       </c>
       <c r="AJ13" t="n">
-        <v>12.4611</v>
+        <v>87.7817</v>
       </c>
       <c r="AK13" t="n">
-        <v>14.5379</v>
+        <v>87.7817</v>
       </c>
       <c r="AL13" t="n">
-        <v>22.8453</v>
+        <v>52.1945</v>
       </c>
       <c r="AM13" t="n">
-        <v>85.1506</v>
+        <v>68.8019</v>
       </c>
       <c r="AN13" t="n">
-        <v>30.1142</v>
+        <v>61.6845</v>
       </c>
       <c r="AO13" t="n">
-        <v>44.6521</v>
+        <v>96.08540000000001</v>
       </c>
     </row>
     <row r="14">
@@ -3132,124 +3132,124 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>62.9921</v>
+        <v>93.5094</v>
       </c>
       <c r="C14" t="n">
-        <v>33.0709</v>
+        <v>58.3058</v>
       </c>
       <c r="D14" t="n">
-        <v>70.8661</v>
+        <v>77.0077</v>
       </c>
       <c r="E14" t="n">
-        <v>111.811</v>
+        <v>56.1056</v>
       </c>
       <c r="F14" t="n">
-        <v>144.8819</v>
+        <v>1.1001</v>
       </c>
       <c r="G14" t="n">
-        <v>56.6929</v>
+        <v>61.6062</v>
       </c>
       <c r="H14" t="n">
-        <v>33.0709</v>
+        <v>6.6007</v>
       </c>
       <c r="I14" t="n">
-        <v>113.3858</v>
+        <v>66.00660000000001</v>
       </c>
       <c r="J14" t="n">
-        <v>51.9685</v>
+        <v>72.6073</v>
       </c>
       <c r="K14" t="n">
-        <v>22.0472</v>
+        <v>27.5028</v>
       </c>
       <c r="L14" t="n">
-        <v>75.59059999999999</v>
+        <v>100.11</v>
       </c>
       <c r="M14" t="n">
-        <v>151.1811</v>
+        <v>100.11</v>
       </c>
       <c r="N14" t="n">
-        <v>74.0157</v>
+        <v>39.604</v>
       </c>
       <c r="O14" t="n">
-        <v>119.685</v>
+        <v>13.2013</v>
       </c>
       <c r="P14" t="n">
-        <v>1.5748</v>
+        <v>69.3069</v>
       </c>
       <c r="Q14" t="n">
-        <v>31.4961</v>
+        <v>103.4103</v>
       </c>
       <c r="R14" t="n">
-        <v>143.3071</v>
+        <v>13.2013</v>
       </c>
       <c r="S14" t="n">
-        <v>125.9843</v>
+        <v>53.9054</v>
       </c>
       <c r="T14" t="n">
-        <v>80.315</v>
+        <v>57.2057</v>
       </c>
       <c r="U14" t="n">
-        <v>25.1969</v>
+        <v>101.2101</v>
       </c>
       <c r="V14" t="n">
-        <v>122.8346</v>
+        <v>68.2068</v>
       </c>
       <c r="W14" t="n">
-        <v>29.9213</v>
+        <v>31.9032</v>
       </c>
       <c r="X14" t="n">
-        <v>67.7165</v>
+        <v>51.7052</v>
       </c>
       <c r="Y14" t="n">
-        <v>59.8425</v>
+        <v>30.8031</v>
       </c>
       <c r="Z14" t="n">
-        <v>157.4803</v>
+        <v>61.6062</v>
       </c>
       <c r="AA14" t="n">
-        <v>130.7087</v>
+        <v>1.1001</v>
       </c>
       <c r="AB14" t="n">
-        <v>138.5827</v>
+        <v>103.4103</v>
       </c>
       <c r="AC14" t="n">
-        <v>100.7874</v>
+        <v>92.4092</v>
       </c>
       <c r="AD14" t="n">
-        <v>40.9449</v>
+        <v>80.30800000000001</v>
       </c>
       <c r="AE14" t="n">
-        <v>102.3622</v>
+        <v>61.6062</v>
       </c>
       <c r="AF14" t="n">
-        <v>96.063</v>
+        <v>25.3025</v>
       </c>
       <c r="AG14" t="n">
-        <v>116.5354</v>
+        <v>24.2024</v>
       </c>
       <c r="AH14" t="n">
-        <v>107.0866</v>
+        <v>1.1001</v>
       </c>
       <c r="AI14" t="n">
-        <v>58.2677</v>
+        <v>64.90649999999999</v>
       </c>
       <c r="AJ14" t="n">
-        <v>18.8976</v>
+        <v>81.4081</v>
       </c>
       <c r="AK14" t="n">
-        <v>22.0472</v>
+        <v>81.4081</v>
       </c>
       <c r="AL14" t="n">
-        <v>34.6457</v>
+        <v>48.4048</v>
       </c>
       <c r="AM14" t="n">
-        <v>129.1339</v>
+        <v>63.8064</v>
       </c>
       <c r="AN14" t="n">
-        <v>45.6693</v>
+        <v>57.2057</v>
       </c>
       <c r="AO14" t="n">
-        <v>67.7165</v>
+        <v>89.10890000000001</v>
       </c>
     </row>
     <row r="15">
@@ -3259,124 +3259,124 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>35.057</v>
+        <v>108.9744</v>
       </c>
       <c r="C15" t="n">
-        <v>18.4049</v>
+        <v>67.9487</v>
       </c>
       <c r="D15" t="n">
-        <v>39.4391</v>
+        <v>89.7436</v>
       </c>
       <c r="E15" t="n">
-        <v>62.2261</v>
+        <v>65.38460000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>80.631</v>
+        <v>1.2821</v>
       </c>
       <c r="G15" t="n">
-        <v>31.5513</v>
+        <v>71.7949</v>
       </c>
       <c r="H15" t="n">
-        <v>18.4049</v>
+        <v>7.6923</v>
       </c>
       <c r="I15" t="n">
-        <v>63.1025</v>
+        <v>76.92310000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>28.922</v>
+        <v>84.61539999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>12.2699</v>
+        <v>32.0513</v>
       </c>
       <c r="L15" t="n">
-        <v>42.0684</v>
+        <v>116.6667</v>
       </c>
       <c r="M15" t="n">
-        <v>84.1367</v>
+        <v>116.6667</v>
       </c>
       <c r="N15" t="n">
-        <v>41.1919</v>
+        <v>46.1538</v>
       </c>
       <c r="O15" t="n">
-        <v>66.6082</v>
+        <v>15.3846</v>
       </c>
       <c r="P15" t="n">
-        <v>0.8764</v>
+        <v>80.7692</v>
       </c>
       <c r="Q15" t="n">
-        <v>17.5285</v>
+        <v>120.5128</v>
       </c>
       <c r="R15" t="n">
-        <v>79.7546</v>
+        <v>15.3846</v>
       </c>
       <c r="S15" t="n">
-        <v>70.1139</v>
+        <v>62.8205</v>
       </c>
       <c r="T15" t="n">
-        <v>44.6976</v>
+        <v>66.66670000000001</v>
       </c>
       <c r="U15" t="n">
-        <v>14.0228</v>
+        <v>117.9487</v>
       </c>
       <c r="V15" t="n">
-        <v>68.36109999999999</v>
+        <v>79.4872</v>
       </c>
       <c r="W15" t="n">
-        <v>16.6521</v>
+        <v>37.1795</v>
       </c>
       <c r="X15" t="n">
-        <v>37.6862</v>
+        <v>60.2564</v>
       </c>
       <c r="Y15" t="n">
-        <v>33.3041</v>
+        <v>35.8974</v>
       </c>
       <c r="Z15" t="n">
-        <v>87.64239999999999</v>
+        <v>71.7949</v>
       </c>
       <c r="AA15" t="n">
-        <v>72.7432</v>
+        <v>1.2821</v>
       </c>
       <c r="AB15" t="n">
-        <v>77.1253</v>
+        <v>120.5128</v>
       </c>
       <c r="AC15" t="n">
-        <v>56.0911</v>
+        <v>107.6923</v>
       </c>
       <c r="AD15" t="n">
-        <v>22.787</v>
+        <v>93.58969999999999</v>
       </c>
       <c r="AE15" t="n">
-        <v>56.9676</v>
+        <v>71.7949</v>
       </c>
       <c r="AF15" t="n">
-        <v>53.4619</v>
+        <v>29.4872</v>
       </c>
       <c r="AG15" t="n">
-        <v>64.8554</v>
+        <v>28.2051</v>
       </c>
       <c r="AH15" t="n">
-        <v>59.5968</v>
+        <v>1.2821</v>
       </c>
       <c r="AI15" t="n">
-        <v>32.4277</v>
+        <v>75.64100000000001</v>
       </c>
       <c r="AJ15" t="n">
-        <v>10.5171</v>
+        <v>94.87179999999999</v>
       </c>
       <c r="AK15" t="n">
-        <v>12.2699</v>
+        <v>94.87179999999999</v>
       </c>
       <c r="AL15" t="n">
-        <v>19.2813</v>
+        <v>56.4103</v>
       </c>
       <c r="AM15" t="n">
-        <v>71.8668</v>
+        <v>74.35899999999999</v>
       </c>
       <c r="AN15" t="n">
-        <v>25.4163</v>
+        <v>66.66670000000001</v>
       </c>
       <c r="AO15" t="n">
-        <v>37.6862</v>
+        <v>103.8462</v>
       </c>
     </row>
   </sheetData>
@@ -3608,124 +3608,124 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.6043</v>
+        <v>29.7887</v>
       </c>
       <c r="C3" t="n">
-        <v>9.629899999999999</v>
+        <v>25.2938</v>
       </c>
       <c r="D3" t="n">
-        <v>15.5592</v>
+        <v>26.1669</v>
       </c>
       <c r="E3" t="n">
-        <v>27.1997</v>
+        <v>24.3217</v>
       </c>
       <c r="F3" t="n">
-        <v>25.4926</v>
+        <v>5.9887</v>
       </c>
       <c r="G3" t="n">
-        <v>16.8573</v>
+        <v>23.5191</v>
       </c>
       <c r="H3" t="n">
-        <v>14.0015</v>
+        <v>15.9301</v>
       </c>
       <c r="I3" t="n">
-        <v>24.6219</v>
+        <v>26.9491</v>
       </c>
       <c r="J3" t="n">
-        <v>18.2197</v>
+        <v>27.7429</v>
       </c>
       <c r="K3" t="n">
-        <v>13.1079</v>
+        <v>19.3573</v>
       </c>
       <c r="L3" t="n">
-        <v>17.8746</v>
+        <v>35.126</v>
       </c>
       <c r="M3" t="n">
-        <v>30.4345</v>
+        <v>30.0486</v>
       </c>
       <c r="N3" t="n">
-        <v>21.8755</v>
+        <v>19.6486</v>
       </c>
       <c r="O3" t="n">
-        <v>28.5267</v>
+        <v>15.367</v>
       </c>
       <c r="P3" t="n">
-        <v>9.2361</v>
+        <v>28.3008</v>
       </c>
       <c r="Q3" t="n">
-        <v>15.4661</v>
+        <v>37.8016</v>
       </c>
       <c r="R3" t="n">
-        <v>33.586</v>
+        <v>15.2377</v>
       </c>
       <c r="S3" t="n">
-        <v>20.6411</v>
+        <v>25.8928</v>
       </c>
       <c r="T3" t="n">
-        <v>20.279</v>
+        <v>29.2152</v>
       </c>
       <c r="U3" t="n">
-        <v>10.1484</v>
+        <v>38.4865</v>
       </c>
       <c r="V3" t="n">
-        <v>30.7407</v>
+        <v>23.8811</v>
       </c>
       <c r="W3" t="n">
-        <v>13.6484</v>
+        <v>14.5971</v>
       </c>
       <c r="X3" t="n">
-        <v>19.9125</v>
+        <v>19.6644</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.7784</v>
+        <v>18.3012</v>
       </c>
       <c r="Z3" t="n">
-        <v>33.2437</v>
+        <v>23.5109</v>
       </c>
       <c r="AA3" t="n">
-        <v>25.8481</v>
+        <v>15.0402</v>
       </c>
       <c r="AB3" t="n">
-        <v>26.5241</v>
+        <v>31.7471</v>
       </c>
       <c r="AC3" t="n">
-        <v>25.1986</v>
+        <v>29.538</v>
       </c>
       <c r="AD3" t="n">
-        <v>15.4747</v>
+        <v>30.9284</v>
       </c>
       <c r="AE3" t="n">
-        <v>22.2703</v>
+        <v>25.7759</v>
       </c>
       <c r="AF3" t="n">
-        <v>22.8849</v>
+        <v>18.2975</v>
       </c>
       <c r="AG3" t="n">
-        <v>30.418</v>
+        <v>16.0848</v>
       </c>
       <c r="AH3" t="n">
-        <v>25.6504</v>
+        <v>15.8107</v>
       </c>
       <c r="AI3" t="n">
-        <v>13.5599</v>
+        <v>20.6109</v>
       </c>
       <c r="AJ3" t="n">
-        <v>9.927</v>
+        <v>29.0325</v>
       </c>
       <c r="AK3" t="n">
-        <v>10.5371</v>
+        <v>25.6886</v>
       </c>
       <c r="AL3" t="n">
-        <v>16.6706</v>
+        <v>26.6405</v>
       </c>
       <c r="AM3" t="n">
-        <v>31.1977</v>
+        <v>29.4778</v>
       </c>
       <c r="AN3" t="n">
-        <v>13.4015</v>
+        <v>24.1845</v>
       </c>
       <c r="AO3" t="n">
-        <v>17.4342</v>
+        <v>33.3188</v>
       </c>
     </row>
     <row r="4">
@@ -3735,124 +3735,124 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.141</v>
+        <v>24.2968</v>
       </c>
       <c r="C4" t="n">
-        <v>12.9053</v>
+        <v>19.8971</v>
       </c>
       <c r="D4" t="n">
-        <v>20.3889</v>
+        <v>20.3472</v>
       </c>
       <c r="E4" t="n">
-        <v>35.819</v>
+        <v>19.9905</v>
       </c>
       <c r="F4" t="n">
-        <v>32.5056</v>
+        <v>4.6609</v>
       </c>
       <c r="G4" t="n">
-        <v>22.6383</v>
+        <v>19.4862</v>
       </c>
       <c r="H4" t="n">
-        <v>19.4182</v>
+        <v>12.5899</v>
       </c>
       <c r="I4" t="n">
-        <v>32.049</v>
+        <v>21.8586</v>
       </c>
       <c r="J4" t="n">
-        <v>24.7136</v>
+        <v>22.2323</v>
       </c>
       <c r="K4" t="n">
-        <v>18.3037</v>
+        <v>16.2333</v>
       </c>
       <c r="L4" t="n">
-        <v>23.5609</v>
+        <v>28.9095</v>
       </c>
       <c r="M4" t="n">
-        <v>39.3143</v>
+        <v>24.1497</v>
       </c>
       <c r="N4" t="n">
-        <v>29.3595</v>
+        <v>16.0399</v>
       </c>
       <c r="O4" t="n">
-        <v>37.6314</v>
+        <v>12.6785</v>
       </c>
       <c r="P4" t="n">
-        <v>13.3231</v>
+        <v>23.189</v>
       </c>
       <c r="Q4" t="n">
-        <v>21.3551</v>
+        <v>30.8481</v>
       </c>
       <c r="R4" t="n">
-        <v>44.2313</v>
+        <v>12.2741</v>
       </c>
       <c r="S4" t="n">
-        <v>26.2096</v>
+        <v>20.8541</v>
       </c>
       <c r="T4" t="n">
-        <v>26.8757</v>
+        <v>23.4785</v>
       </c>
       <c r="U4" t="n">
-        <v>13.9721</v>
+        <v>31.1639</v>
       </c>
       <c r="V4" t="n">
-        <v>40.6731</v>
+        <v>18.2762</v>
       </c>
       <c r="W4" t="n">
-        <v>18.9475</v>
+        <v>11.9034</v>
       </c>
       <c r="X4" t="n">
-        <v>26.7436</v>
+        <v>16.1345</v>
       </c>
       <c r="Y4" t="n">
-        <v>23.957</v>
+        <v>15.1405</v>
       </c>
       <c r="Z4" t="n">
-        <v>43.2363</v>
+        <v>19.2331</v>
       </c>
       <c r="AA4" t="n">
-        <v>33.6867</v>
+        <v>11.4186</v>
       </c>
       <c r="AB4" t="n">
-        <v>34.4247</v>
+        <v>26.2287</v>
       </c>
       <c r="AC4" t="n">
-        <v>33.5368</v>
+        <v>24.0787</v>
       </c>
       <c r="AD4" t="n">
-        <v>21.1287</v>
+        <v>24.7197</v>
       </c>
       <c r="AE4" t="n">
-        <v>29.211</v>
+        <v>20.919</v>
       </c>
       <c r="AF4" t="n">
-        <v>30.2942</v>
+        <v>14.784</v>
       </c>
       <c r="AG4" t="n">
-        <v>40.4768</v>
+        <v>11.9222</v>
       </c>
       <c r="AH4" t="n">
-        <v>33.6847</v>
+        <v>12.4291</v>
       </c>
       <c r="AI4" t="n">
-        <v>18.1072</v>
+        <v>16.2756</v>
       </c>
       <c r="AJ4" t="n">
-        <v>13.9773</v>
+        <v>22.6953</v>
       </c>
       <c r="AK4" t="n">
-        <v>14.6482</v>
+        <v>21.1441</v>
       </c>
       <c r="AL4" t="n">
-        <v>22.9208</v>
+        <v>21.0954</v>
       </c>
       <c r="AM4" t="n">
-        <v>41.2603</v>
+        <v>23.5048</v>
       </c>
       <c r="AN4" t="n">
-        <v>18.1667</v>
+        <v>19.2628</v>
       </c>
       <c r="AO4" t="n">
-        <v>23.09</v>
+        <v>26.9697</v>
       </c>
     </row>
     <row r="5">
@@ -3862,124 +3862,124 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17.7635</v>
+        <v>24.9146</v>
       </c>
       <c r="C5" t="n">
-        <v>10.1574</v>
+        <v>22.9258</v>
       </c>
       <c r="D5" t="n">
-        <v>15.7748</v>
+        <v>21.9309</v>
       </c>
       <c r="E5" t="n">
-        <v>26.5969</v>
+        <v>22.4454</v>
       </c>
       <c r="F5" t="n">
-        <v>23.4435</v>
+        <v>6.6793</v>
       </c>
       <c r="G5" t="n">
-        <v>17.9792</v>
+        <v>21.0403</v>
       </c>
       <c r="H5" t="n">
-        <v>17.8464</v>
+        <v>17.4888</v>
       </c>
       <c r="I5" t="n">
-        <v>23.1112</v>
+        <v>24.3473</v>
       </c>
       <c r="J5" t="n">
-        <v>19.7585</v>
+        <v>24.4698</v>
       </c>
       <c r="K5" t="n">
-        <v>15.9299</v>
+        <v>19.7373</v>
       </c>
       <c r="L5" t="n">
-        <v>18.1729</v>
+        <v>30.5198</v>
       </c>
       <c r="M5" t="n">
-        <v>28.0862</v>
+        <v>24.3822</v>
       </c>
       <c r="N5" t="n">
-        <v>23.2535</v>
+        <v>18.6552</v>
       </c>
       <c r="O5" t="n">
-        <v>29.0797</v>
+        <v>16.4365</v>
       </c>
       <c r="P5" t="n">
-        <v>12.2842</v>
+        <v>25.68</v>
       </c>
       <c r="Q5" t="n">
-        <v>17.6466</v>
+        <v>33.1543</v>
       </c>
       <c r="R5" t="n">
-        <v>34.0449</v>
+        <v>16.1467</v>
       </c>
       <c r="S5" t="n">
-        <v>19.8527</v>
+        <v>24.278</v>
       </c>
       <c r="T5" t="n">
-        <v>20.8264</v>
+        <v>27.7318</v>
       </c>
       <c r="U5" t="n">
-        <v>12.202</v>
+        <v>34.0491</v>
       </c>
       <c r="V5" t="n">
-        <v>31.1478</v>
+        <v>20.0848</v>
       </c>
       <c r="W5" t="n">
-        <v>17.062</v>
+        <v>13.6041</v>
       </c>
       <c r="X5" t="n">
-        <v>21.4281</v>
+        <v>17.4977</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.7789</v>
+        <v>18.081</v>
       </c>
       <c r="Z5" t="n">
-        <v>31.8483</v>
+        <v>20.9146</v>
       </c>
       <c r="AA5" t="n">
-        <v>27.3064</v>
+        <v>16.8061</v>
       </c>
       <c r="AB5" t="n">
-        <v>27.6137</v>
+        <v>26.3337</v>
       </c>
       <c r="AC5" t="n">
-        <v>27.4942</v>
+        <v>24.73</v>
       </c>
       <c r="AD5" t="n">
-        <v>17.4302</v>
+        <v>27.3125</v>
       </c>
       <c r="AE5" t="n">
-        <v>23.0637</v>
+        <v>23.4462</v>
       </c>
       <c r="AF5" t="n">
-        <v>24.3789</v>
+        <v>18.462</v>
       </c>
       <c r="AG5" t="n">
-        <v>31.9699</v>
+        <v>15.5263</v>
       </c>
       <c r="AH5" t="n">
-        <v>24.5229</v>
+        <v>17.8734</v>
       </c>
       <c r="AI5" t="n">
-        <v>16.3</v>
+        <v>16.9653</v>
       </c>
       <c r="AJ5" t="n">
-        <v>13.6992</v>
+        <v>24.7939</v>
       </c>
       <c r="AK5" t="n">
-        <v>13.1315</v>
+        <v>21.4985</v>
       </c>
       <c r="AL5" t="n">
-        <v>18.2162</v>
+        <v>25.517</v>
       </c>
       <c r="AM5" t="n">
-        <v>32.4469</v>
+        <v>27.2833</v>
       </c>
       <c r="AN5" t="n">
-        <v>16.1002</v>
+        <v>21.8866</v>
       </c>
       <c r="AO5" t="n">
-        <v>17.4509</v>
+        <v>29.3232</v>
       </c>
     </row>
     <row r="6">
@@ -3989,124 +3989,124 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13.1282</v>
+        <v>19.1592</v>
       </c>
       <c r="C6" t="n">
-        <v>6.9935</v>
+        <v>13.9604</v>
       </c>
       <c r="D6" t="n">
-        <v>13.0902</v>
+        <v>16.4268</v>
       </c>
       <c r="E6" t="n">
-        <v>20.2567</v>
+        <v>13.2621</v>
       </c>
       <c r="F6" t="n">
-        <v>23.0837</v>
+        <v>1.8393</v>
       </c>
       <c r="G6" t="n">
-        <v>12.2702</v>
+        <v>13.6483</v>
       </c>
       <c r="H6" t="n">
-        <v>11.0954</v>
+        <v>5.2822</v>
       </c>
       <c r="I6" t="n">
-        <v>19.0791</v>
+        <v>15.1973</v>
       </c>
       <c r="J6" t="n">
-        <v>12.2925</v>
+        <v>16.2383</v>
       </c>
       <c r="K6" t="n">
-        <v>8.3949</v>
+        <v>8.5002</v>
       </c>
       <c r="L6" t="n">
-        <v>14.2821</v>
+        <v>21.3623</v>
       </c>
       <c r="M6" t="n">
-        <v>24.6397</v>
+        <v>20.068</v>
       </c>
       <c r="N6" t="n">
-        <v>15.9086</v>
+        <v>10.0706</v>
       </c>
       <c r="O6" t="n">
-        <v>22.7366</v>
+        <v>5.7858</v>
       </c>
       <c r="P6" t="n">
-        <v>5.0179</v>
+        <v>15.9131</v>
       </c>
       <c r="Q6" t="n">
-        <v>9.542199999999999</v>
+        <v>22.5383</v>
       </c>
       <c r="R6" t="n">
-        <v>26.9129</v>
+        <v>5.8078</v>
       </c>
       <c r="S6" t="n">
-        <v>20.7409</v>
+        <v>13.5252</v>
       </c>
       <c r="T6" t="n">
-        <v>15.6541</v>
+        <v>14.8506</v>
       </c>
       <c r="U6" t="n">
-        <v>7.496</v>
+        <v>22.5206</v>
       </c>
       <c r="V6" t="n">
-        <v>23.4674</v>
+        <v>14.8079</v>
       </c>
       <c r="W6" t="n">
-        <v>10.1689</v>
+        <v>7.7722</v>
       </c>
       <c r="X6" t="n">
-        <v>14.7834</v>
+        <v>11.4649</v>
       </c>
       <c r="Y6" t="n">
-        <v>13.7456</v>
+        <v>8.6343</v>
       </c>
       <c r="Z6" t="n">
-        <v>26.9965</v>
+        <v>13.6939</v>
       </c>
       <c r="AA6" t="n">
-        <v>24.6165</v>
+        <v>4.4819</v>
       </c>
       <c r="AB6" t="n">
-        <v>25.4797</v>
+        <v>20.7899</v>
       </c>
       <c r="AC6" t="n">
-        <v>21.1652</v>
+        <v>18.9643</v>
       </c>
       <c r="AD6" t="n">
-        <v>10.6316</v>
+        <v>18.0416</v>
       </c>
       <c r="AE6" t="n">
-        <v>19.3383</v>
+        <v>14.3561</v>
       </c>
       <c r="AF6" t="n">
-        <v>19.2719</v>
+        <v>8.062900000000001</v>
       </c>
       <c r="AG6" t="n">
-        <v>23.6496</v>
+        <v>7.5239</v>
       </c>
       <c r="AH6" t="n">
-        <v>18.7846</v>
+        <v>4.6224</v>
       </c>
       <c r="AI6" t="n">
-        <v>13.4162</v>
+        <v>13.3843</v>
       </c>
       <c r="AJ6" t="n">
-        <v>8.2582</v>
+        <v>17.7341</v>
       </c>
       <c r="AK6" t="n">
-        <v>7.6649</v>
+        <v>16.5744</v>
       </c>
       <c r="AL6" t="n">
-        <v>9.5961</v>
+        <v>13.1661</v>
       </c>
       <c r="AM6" t="n">
-        <v>25.2513</v>
+        <v>15.7269</v>
       </c>
       <c r="AN6" t="n">
-        <v>11.6013</v>
+        <v>13.4711</v>
       </c>
       <c r="AO6" t="n">
-        <v>12.8307</v>
+        <v>19.6714</v>
       </c>
     </row>
     <row r="7">
@@ -4116,124 +4116,124 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.6937</v>
+        <v>15.6813</v>
       </c>
       <c r="C7" t="n">
-        <v>5.3537</v>
+        <v>12.2218</v>
       </c>
       <c r="D7" t="n">
-        <v>9.536300000000001</v>
+        <v>14.1139</v>
       </c>
       <c r="E7" t="n">
-        <v>15.5733</v>
+        <v>11.1197</v>
       </c>
       <c r="F7" t="n">
-        <v>16.6271</v>
+        <v>1.945</v>
       </c>
       <c r="G7" t="n">
-        <v>9.3634</v>
+        <v>11.2081</v>
       </c>
       <c r="H7" t="n">
-        <v>7.882</v>
+        <v>5.317</v>
       </c>
       <c r="I7" t="n">
-        <v>14.539</v>
+        <v>12.8347</v>
       </c>
       <c r="J7" t="n">
-        <v>9.6424</v>
+        <v>13.7741</v>
       </c>
       <c r="K7" t="n">
-        <v>6.5503</v>
+        <v>7.28</v>
       </c>
       <c r="L7" t="n">
-        <v>10.6043</v>
+        <v>17.5111</v>
       </c>
       <c r="M7" t="n">
-        <v>18.5053</v>
+        <v>16.5329</v>
       </c>
       <c r="N7" t="n">
-        <v>12.1525</v>
+        <v>8.6204</v>
       </c>
       <c r="O7" t="n">
-        <v>16.8897</v>
+        <v>5.264</v>
       </c>
       <c r="P7" t="n">
-        <v>4.0929</v>
+        <v>13.3044</v>
       </c>
       <c r="Q7" t="n">
-        <v>7.6844</v>
+        <v>18.7046</v>
       </c>
       <c r="R7" t="n">
-        <v>19.9712</v>
+        <v>5.4488</v>
       </c>
       <c r="S7" t="n">
-        <v>14.3081</v>
+        <v>11.703</v>
       </c>
       <c r="T7" t="n">
-        <v>11.7575</v>
+        <v>12.9621</v>
       </c>
       <c r="U7" t="n">
-        <v>5.5409</v>
+        <v>18.9074</v>
       </c>
       <c r="V7" t="n">
-        <v>17.7478</v>
+        <v>12.9375</v>
       </c>
       <c r="W7" t="n">
-        <v>7.4229</v>
+        <v>6.6063</v>
       </c>
       <c r="X7" t="n">
-        <v>11.1726</v>
+        <v>9.503500000000001</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.1566</v>
+        <v>7.4087</v>
       </c>
       <c r="Z7" t="n">
-        <v>20.1272</v>
+        <v>11.3884</v>
       </c>
       <c r="AA7" t="n">
-        <v>17.0382</v>
+        <v>4.9685</v>
       </c>
       <c r="AB7" t="n">
-        <v>17.6272</v>
+        <v>16.7557</v>
       </c>
       <c r="AC7" t="n">
-        <v>15.2222</v>
+        <v>15.5351</v>
       </c>
       <c r="AD7" t="n">
-        <v>8.208399999999999</v>
+        <v>15.3548</v>
       </c>
       <c r="AE7" t="n">
-        <v>13.8734</v>
+        <v>12.1486</v>
       </c>
       <c r="AF7" t="n">
-        <v>13.91</v>
+        <v>7.2427</v>
       </c>
       <c r="AG7" t="n">
-        <v>17.6357</v>
+        <v>7.3144</v>
       </c>
       <c r="AH7" t="n">
-        <v>14.6</v>
+        <v>4.9035</v>
       </c>
       <c r="AI7" t="n">
-        <v>8.9588</v>
+        <v>11.2626</v>
       </c>
       <c r="AJ7" t="n">
-        <v>5.6566</v>
+        <v>15.2579</v>
       </c>
       <c r="AK7" t="n">
-        <v>5.6502</v>
+        <v>13.4408</v>
       </c>
       <c r="AL7" t="n">
-        <v>8.053000000000001</v>
+        <v>11.7606</v>
       </c>
       <c r="AM7" t="n">
-        <v>18.5792</v>
+        <v>13.6877</v>
       </c>
       <c r="AN7" t="n">
-        <v>8.0969</v>
+        <v>11.6223</v>
       </c>
       <c r="AO7" t="n">
-        <v>9.869300000000001</v>
+        <v>16.4913</v>
       </c>
     </row>
     <row r="8">
@@ -4243,124 +4243,124 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.5501</v>
+        <v>22.4878</v>
       </c>
       <c r="C8" t="n">
-        <v>4.2403</v>
+        <v>15.9737</v>
       </c>
       <c r="D8" t="n">
-        <v>7.2278</v>
+        <v>19.4084</v>
       </c>
       <c r="E8" t="n">
-        <v>12.0407</v>
+        <v>14.9317</v>
       </c>
       <c r="F8" t="n">
-        <v>12.1467</v>
+        <v>1.7038</v>
       </c>
       <c r="G8" t="n">
-        <v>7.4331</v>
+        <v>15.5775</v>
       </c>
       <c r="H8" t="n">
-        <v>6.4349</v>
+        <v>5.0433</v>
       </c>
       <c r="I8" t="n">
-        <v>11.0404</v>
+        <v>17.3281</v>
       </c>
       <c r="J8" t="n">
-        <v>7.8295</v>
+        <v>18.7465</v>
       </c>
       <c r="K8" t="n">
-        <v>5.5725</v>
+        <v>8.8804</v>
       </c>
       <c r="L8" t="n">
-        <v>8.1396</v>
+        <v>24.7044</v>
       </c>
       <c r="M8" t="n">
-        <v>13.8667</v>
+        <v>23.8238</v>
       </c>
       <c r="N8" t="n">
-        <v>9.641</v>
+        <v>11.1709</v>
       </c>
       <c r="O8" t="n">
-        <v>12.9796</v>
+        <v>5.7262</v>
       </c>
       <c r="P8" t="n">
-        <v>3.7539</v>
+        <v>18.0771</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.4706</v>
+        <v>26.0036</v>
       </c>
       <c r="R8" t="n">
-        <v>15.3087</v>
+        <v>5.8473</v>
       </c>
       <c r="S8" t="n">
-        <v>10.3014</v>
+        <v>15.1486</v>
       </c>
       <c r="T8" t="n">
-        <v>9.119199999999999</v>
+        <v>16.5196</v>
       </c>
       <c r="U8" t="n">
-        <v>4.5289</v>
+        <v>25.9234</v>
       </c>
       <c r="V8" t="n">
-        <v>13.7572</v>
+        <v>17.5183</v>
       </c>
       <c r="W8" t="n">
-        <v>6.1242</v>
+        <v>8.7163</v>
       </c>
       <c r="X8" t="n">
-        <v>8.8476</v>
+        <v>13.137</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.0328</v>
+        <v>9.2957</v>
       </c>
       <c r="Z8" t="n">
-        <v>15.1902</v>
+        <v>15.7005</v>
       </c>
       <c r="AA8" t="n">
-        <v>12.6577</v>
+        <v>4.1491</v>
       </c>
       <c r="AB8" t="n">
-        <v>13.0277</v>
+        <v>24.4182</v>
       </c>
       <c r="AC8" t="n">
-        <v>11.7407</v>
+        <v>22.2536</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.7058</v>
+        <v>20.8268</v>
       </c>
       <c r="AE8" t="n">
-        <v>10.4873</v>
+        <v>16.3149</v>
       </c>
       <c r="AF8" t="n">
-        <v>10.6607</v>
+        <v>8.5632</v>
       </c>
       <c r="AG8" t="n">
-        <v>13.7315</v>
+        <v>8.3964</v>
       </c>
       <c r="AH8" t="n">
-        <v>11.2732</v>
+        <v>4.1367</v>
       </c>
       <c r="AI8" t="n">
-        <v>6.7931</v>
+        <v>15.865</v>
       </c>
       <c r="AJ8" t="n">
-        <v>4.6707</v>
+        <v>20.8054</v>
       </c>
       <c r="AK8" t="n">
-        <v>4.6867</v>
+        <v>19.423</v>
       </c>
       <c r="AL8" t="n">
-        <v>6.8066</v>
+        <v>14.6004</v>
       </c>
       <c r="AM8" t="n">
-        <v>14.2931</v>
+        <v>17.7695</v>
       </c>
       <c r="AN8" t="n">
-        <v>6.3517</v>
+        <v>15.3936</v>
       </c>
       <c r="AO8" t="n">
-        <v>7.6931</v>
+        <v>22.6939</v>
       </c>
     </row>
     <row r="9">
@@ -4370,124 +4370,124 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12.1758</v>
+        <v>13.4551</v>
       </c>
       <c r="C9" t="n">
-        <v>6.5333</v>
+        <v>10.0877</v>
       </c>
       <c r="D9" t="n">
-        <v>12.424</v>
+        <v>11.8325</v>
       </c>
       <c r="E9" t="n">
-        <v>19.6019</v>
+        <v>9.3475</v>
       </c>
       <c r="F9" t="n">
-        <v>22.6556</v>
+        <v>1.4207</v>
       </c>
       <c r="G9" t="n">
-        <v>11.398</v>
+        <v>9.5467</v>
       </c>
       <c r="H9" t="n">
-        <v>9.3566</v>
+        <v>3.9855</v>
       </c>
       <c r="I9" t="n">
-        <v>18.7467</v>
+        <v>10.7768</v>
       </c>
       <c r="J9" t="n">
-        <v>11.314</v>
+        <v>11.5685</v>
       </c>
       <c r="K9" t="n">
-        <v>7.1651</v>
+        <v>5.9712</v>
       </c>
       <c r="L9" t="n">
-        <v>13.5552</v>
+        <v>14.9684</v>
       </c>
       <c r="M9" t="n">
-        <v>24.3087</v>
+        <v>14.1714</v>
       </c>
       <c r="N9" t="n">
-        <v>14.8031</v>
+        <v>7.1517</v>
       </c>
       <c r="O9" t="n">
-        <v>21.5556</v>
+        <v>4.1552</v>
       </c>
       <c r="P9" t="n">
-        <v>3.8714</v>
+        <v>11.2196</v>
       </c>
       <c r="Q9" t="n">
-        <v>8.4917</v>
+        <v>15.8813</v>
       </c>
       <c r="R9" t="n">
-        <v>25.5745</v>
+        <v>4.2522</v>
       </c>
       <c r="S9" t="n">
-        <v>19.9618</v>
+        <v>9.6755</v>
       </c>
       <c r="T9" t="n">
-        <v>14.8012</v>
+        <v>10.6569</v>
       </c>
       <c r="U9" t="n">
-        <v>6.5142</v>
+        <v>15.9528</v>
       </c>
       <c r="V9" t="n">
-        <v>22.3313</v>
+        <v>10.7592</v>
       </c>
       <c r="W9" t="n">
-        <v>8.629799999999999</v>
+        <v>5.5115</v>
       </c>
       <c r="X9" t="n">
-        <v>13.6701</v>
+        <v>8.062799999999999</v>
       </c>
       <c r="Y9" t="n">
-        <v>12.5011</v>
+        <v>6.1048</v>
       </c>
       <c r="Z9" t="n">
-        <v>26.2481</v>
+        <v>9.6471</v>
       </c>
       <c r="AA9" t="n">
-        <v>22.943</v>
+        <v>3.5576</v>
       </c>
       <c r="AB9" t="n">
-        <v>23.879</v>
+        <v>14.4931</v>
       </c>
       <c r="AC9" t="n">
-        <v>19.4549</v>
+        <v>13.3232</v>
       </c>
       <c r="AD9" t="n">
-        <v>9.5755</v>
+        <v>12.8745</v>
       </c>
       <c r="AE9" t="n">
-        <v>18.1831</v>
+        <v>10.1839</v>
       </c>
       <c r="AF9" t="n">
-        <v>17.9074</v>
+        <v>5.8226</v>
       </c>
       <c r="AG9" t="n">
-        <v>22.12</v>
+        <v>5.7161</v>
       </c>
       <c r="AH9" t="n">
-        <v>18.3723</v>
+        <v>3.5591</v>
       </c>
       <c r="AI9" t="n">
-        <v>11.8586</v>
+        <v>9.547700000000001</v>
       </c>
       <c r="AJ9" t="n">
-        <v>6.6563</v>
+        <v>12.7649</v>
       </c>
       <c r="AK9" t="n">
-        <v>6.5036</v>
+        <v>11.5836</v>
       </c>
       <c r="AL9" t="n">
-        <v>8.776</v>
+        <v>9.555300000000001</v>
       </c>
       <c r="AM9" t="n">
-        <v>23.7218</v>
+        <v>11.3028</v>
       </c>
       <c r="AN9" t="n">
-        <v>10.1854</v>
+        <v>9.659800000000001</v>
       </c>
       <c r="AO9" t="n">
-        <v>12.2909</v>
+        <v>13.9306</v>
       </c>
     </row>
     <row r="10">
@@ -4497,124 +4497,124 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17.0566</v>
+        <v>23.2171</v>
       </c>
       <c r="C10" t="n">
-        <v>9.2288</v>
+        <v>17.8839</v>
       </c>
       <c r="D10" t="n">
-        <v>17.9475</v>
+        <v>21.0927</v>
       </c>
       <c r="E10" t="n">
-        <v>28.9559</v>
+        <v>16.0011</v>
       </c>
       <c r="F10" t="n">
-        <v>34.1165</v>
+        <v>2.5837</v>
       </c>
       <c r="G10" t="n">
-        <v>15.9809</v>
+        <v>16.2513</v>
       </c>
       <c r="H10" t="n">
-        <v>11.3662</v>
+        <v>7.1021</v>
       </c>
       <c r="I10" t="n">
-        <v>28.2158</v>
+        <v>18.6574</v>
       </c>
       <c r="J10" t="n">
-        <v>15.6485</v>
+        <v>20.2158</v>
       </c>
       <c r="K10" t="n">
-        <v>8.843</v>
+        <v>9.960100000000001</v>
       </c>
       <c r="L10" t="n">
-        <v>19.5683</v>
+        <v>25.639</v>
       </c>
       <c r="M10" t="n">
-        <v>36.7803</v>
+        <v>24.7057</v>
       </c>
       <c r="N10" t="n">
-        <v>20.8022</v>
+        <v>12.3052</v>
       </c>
       <c r="O10" t="n">
-        <v>31.0733</v>
+        <v>7.0298</v>
       </c>
       <c r="P10" t="n">
-        <v>3.9218</v>
+        <v>19.2645</v>
       </c>
       <c r="Q10" t="n">
-        <v>11.1777</v>
+        <v>27.3751</v>
       </c>
       <c r="R10" t="n">
-        <v>36.9782</v>
+        <v>7.4023</v>
       </c>
       <c r="S10" t="n">
-        <v>29.3989</v>
+        <v>16.8446</v>
       </c>
       <c r="T10" t="n">
-        <v>21.2547</v>
+        <v>18.5882</v>
       </c>
       <c r="U10" t="n">
-        <v>8.2988</v>
+        <v>27.6595</v>
       </c>
       <c r="V10" t="n">
-        <v>32.3237</v>
+        <v>19.3801</v>
       </c>
       <c r="W10" t="n">
-        <v>10.5831</v>
+        <v>9.495699999999999</v>
       </c>
       <c r="X10" t="n">
-        <v>19.0561</v>
+        <v>13.8355</v>
       </c>
       <c r="Y10" t="n">
-        <v>17.0454</v>
+        <v>10.3567</v>
       </c>
       <c r="Z10" t="n">
-        <v>39.0398</v>
+        <v>16.5933</v>
       </c>
       <c r="AA10" t="n">
-        <v>32.4269</v>
+        <v>6.6655</v>
       </c>
       <c r="AB10" t="n">
-        <v>33.9967</v>
+        <v>24.7837</v>
       </c>
       <c r="AC10" t="n">
-        <v>26.9506</v>
+        <v>22.9984</v>
       </c>
       <c r="AD10" t="n">
-        <v>12.8529</v>
+        <v>22.5424</v>
       </c>
       <c r="AE10" t="n">
-        <v>25.9661</v>
+        <v>17.6217</v>
       </c>
       <c r="AF10" t="n">
-        <v>25.1703</v>
+        <v>10.1052</v>
       </c>
       <c r="AG10" t="n">
-        <v>31.3268</v>
+        <v>10.6518</v>
       </c>
       <c r="AH10" t="n">
-        <v>27.4819</v>
+        <v>6.4038</v>
       </c>
       <c r="AI10" t="n">
-        <v>15.5725</v>
+        <v>16.8415</v>
       </c>
       <c r="AJ10" t="n">
-        <v>7.462</v>
+        <v>22.6887</v>
       </c>
       <c r="AK10" t="n">
-        <v>7.9694</v>
+        <v>19.8578</v>
       </c>
       <c r="AL10" t="n">
-        <v>11.9961</v>
+        <v>16.8802</v>
       </c>
       <c r="AM10" t="n">
-        <v>33.8057</v>
+        <v>19.8381</v>
       </c>
       <c r="AN10" t="n">
-        <v>13.2158</v>
+        <v>16.9632</v>
       </c>
       <c r="AO10" t="n">
-        <v>17.9293</v>
+        <v>24.1607</v>
       </c>
     </row>
     <row r="11">
@@ -4624,124 +4624,124 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.321</v>
+        <v>25.5356</v>
       </c>
       <c r="C11" t="n">
-        <v>4.5186</v>
+        <v>19.2628</v>
       </c>
       <c r="D11" t="n">
-        <v>7.7261</v>
+        <v>23.2069</v>
       </c>
       <c r="E11" t="n">
-        <v>12.045</v>
+        <v>17.0963</v>
       </c>
       <c r="F11" t="n">
-        <v>12.2506</v>
+        <v>2.4489</v>
       </c>
       <c r="G11" t="n">
-        <v>8.0078</v>
+        <v>17.5431</v>
       </c>
       <c r="H11" t="n">
-        <v>8.281499999999999</v>
+        <v>6.829</v>
       </c>
       <c r="I11" t="n">
-        <v>10.7728</v>
+        <v>20.0933</v>
       </c>
       <c r="J11" t="n">
-        <v>8.416700000000001</v>
+        <v>21.941</v>
       </c>
       <c r="K11" t="n">
-        <v>6.6294</v>
+        <v>10.1034</v>
       </c>
       <c r="L11" t="n">
-        <v>8.6008</v>
+        <v>27.9233</v>
       </c>
       <c r="M11" t="n">
-        <v>13.5209</v>
+        <v>27.3578</v>
       </c>
       <c r="N11" t="n">
-        <v>10.3519</v>
+        <v>13.0058</v>
       </c>
       <c r="O11" t="n">
-        <v>13.7377</v>
+        <v>6.8774</v>
       </c>
       <c r="P11" t="n">
-        <v>4.7823</v>
+        <v>20.7087</v>
       </c>
       <c r="Q11" t="n">
-        <v>7.1765</v>
+        <v>29.7431</v>
       </c>
       <c r="R11" t="n">
-        <v>16.1466</v>
+        <v>7.3358</v>
       </c>
       <c r="S11" t="n">
-        <v>11.1063</v>
+        <v>17.9087</v>
       </c>
       <c r="T11" t="n">
-        <v>9.6334</v>
+        <v>19.6675</v>
       </c>
       <c r="U11" t="n">
-        <v>5.4669</v>
+        <v>29.9839</v>
       </c>
       <c r="V11" t="n">
-        <v>14.3149</v>
+        <v>21.3115</v>
       </c>
       <c r="W11" t="n">
-        <v>7.6721</v>
+        <v>10.1124</v>
       </c>
       <c r="X11" t="n">
-        <v>9.6562</v>
+        <v>14.9657</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.1195</v>
+        <v>10.7276</v>
       </c>
       <c r="Z11" t="n">
-        <v>15.3133</v>
+        <v>17.9521</v>
       </c>
       <c r="AA11" t="n">
-        <v>14.4451</v>
+        <v>6.3425</v>
       </c>
       <c r="AB11" t="n">
-        <v>14.7311</v>
+        <v>27.3044</v>
       </c>
       <c r="AC11" t="n">
-        <v>13.3509</v>
+        <v>25.2894</v>
       </c>
       <c r="AD11" t="n">
-        <v>7.5076</v>
+        <v>24.4597</v>
       </c>
       <c r="AE11" t="n">
-        <v>11.5075</v>
+        <v>18.9348</v>
       </c>
       <c r="AF11" t="n">
-        <v>11.8862</v>
+        <v>10.3664</v>
       </c>
       <c r="AG11" t="n">
-        <v>14.836</v>
+        <v>11.2452</v>
       </c>
       <c r="AH11" t="n">
-        <v>10.9891</v>
+        <v>5.947</v>
       </c>
       <c r="AI11" t="n">
-        <v>8.639799999999999</v>
+        <v>18.5983</v>
       </c>
       <c r="AJ11" t="n">
-        <v>6.4834</v>
+        <v>24.8514</v>
       </c>
       <c r="AK11" t="n">
-        <v>5.8321</v>
+        <v>21.8341</v>
       </c>
       <c r="AL11" t="n">
-        <v>7.1122</v>
+        <v>17.8089</v>
       </c>
       <c r="AM11" t="n">
-        <v>15.4577</v>
+        <v>21.2046</v>
       </c>
       <c r="AN11" t="n">
-        <v>7.8829</v>
+        <v>18.2716</v>
       </c>
       <c r="AO11" t="n">
-        <v>7.8366</v>
+        <v>26.2313</v>
       </c>
     </row>
     <row r="12">
@@ -4751,124 +4751,124 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20.6178</v>
+        <v>20.2967</v>
       </c>
       <c r="C12" t="n">
-        <v>10.968</v>
+        <v>16.24</v>
       </c>
       <c r="D12" t="n">
-        <v>21.9014</v>
+        <v>19.1151</v>
       </c>
       <c r="E12" t="n">
-        <v>34.5574</v>
+        <v>14.0157</v>
       </c>
       <c r="F12" t="n">
-        <v>41.9896</v>
+        <v>2.5136</v>
       </c>
       <c r="G12" t="n">
-        <v>19.0033</v>
+        <v>14.0873</v>
       </c>
       <c r="H12" t="n">
-        <v>13.833</v>
+        <v>6.74</v>
       </c>
       <c r="I12" t="n">
-        <v>33.8952</v>
+        <v>16.5053</v>
       </c>
       <c r="J12" t="n">
-        <v>18.2995</v>
+        <v>18.0191</v>
       </c>
       <c r="K12" t="n">
-        <v>10.165</v>
+        <v>8.627000000000001</v>
       </c>
       <c r="L12" t="n">
-        <v>23.6696</v>
+        <v>22.3095</v>
       </c>
       <c r="M12" t="n">
-        <v>44.4955</v>
+        <v>21.7941</v>
       </c>
       <c r="N12" t="n">
-        <v>24.7311</v>
+        <v>10.886</v>
       </c>
       <c r="O12" t="n">
-        <v>37.5716</v>
+        <v>6.2704</v>
       </c>
       <c r="P12" t="n">
-        <v>4.1379</v>
+        <v>16.8947</v>
       </c>
       <c r="Q12" t="n">
-        <v>12.751</v>
+        <v>24.0167</v>
       </c>
       <c r="R12" t="n">
-        <v>44.7479</v>
+        <v>6.7867</v>
       </c>
       <c r="S12" t="n">
-        <v>36.7762</v>
+        <v>15.0678</v>
       </c>
       <c r="T12" t="n">
-        <v>25.5543</v>
+        <v>16.6917</v>
       </c>
       <c r="U12" t="n">
-        <v>9.9161</v>
+        <v>24.4494</v>
       </c>
       <c r="V12" t="n">
-        <v>38.7727</v>
+        <v>17.7616</v>
       </c>
       <c r="W12" t="n">
-        <v>12.6829</v>
+        <v>8.389799999999999</v>
       </c>
       <c r="X12" t="n">
-        <v>22.7548</v>
+        <v>12.096</v>
       </c>
       <c r="Y12" t="n">
-        <v>20.5352</v>
+        <v>9.082100000000001</v>
       </c>
       <c r="Z12" t="n">
-        <v>47.2897</v>
+        <v>14.5455</v>
       </c>
       <c r="AA12" t="n">
-        <v>40.4216</v>
+        <v>6.6632</v>
       </c>
       <c r="AB12" t="n">
-        <v>42.4038</v>
+        <v>21.4265</v>
       </c>
       <c r="AC12" t="n">
-        <v>32.9606</v>
+        <v>20.1163</v>
       </c>
       <c r="AD12" t="n">
-        <v>15.089</v>
+        <v>20.139</v>
       </c>
       <c r="AE12" t="n">
-        <v>31.8758</v>
+        <v>15.5932</v>
       </c>
       <c r="AF12" t="n">
-        <v>30.7705</v>
+        <v>9.125</v>
       </c>
       <c r="AG12" t="n">
-        <v>37.732</v>
+        <v>10.2498</v>
       </c>
       <c r="AH12" t="n">
-        <v>32.6902</v>
+        <v>6.2025</v>
       </c>
       <c r="AI12" t="n">
-        <v>19.6739</v>
+        <v>15.0679</v>
       </c>
       <c r="AJ12" t="n">
-        <v>9.233499999999999</v>
+        <v>20.5321</v>
       </c>
       <c r="AK12" t="n">
-        <v>9.4924</v>
+        <v>17.2313</v>
       </c>
       <c r="AL12" t="n">
-        <v>13.4533</v>
+        <v>15.386</v>
       </c>
       <c r="AM12" t="n">
-        <v>41.0088</v>
+        <v>17.8699</v>
       </c>
       <c r="AN12" t="n">
-        <v>16.3252</v>
+        <v>15.2454</v>
       </c>
       <c r="AO12" t="n">
-        <v>21.3549</v>
+        <v>21.3515</v>
       </c>
     </row>
     <row r="13">
@@ -4878,124 +4878,124 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.179</v>
+        <v>12.4905</v>
       </c>
       <c r="C13" t="n">
-        <v>4.9843</v>
+        <v>9.519500000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>8.752599999999999</v>
+        <v>11.1683</v>
       </c>
       <c r="E13" t="n">
-        <v>13.7675</v>
+        <v>8.672800000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>14.4968</v>
+        <v>1.3787</v>
       </c>
       <c r="G13" t="n">
-        <v>8.791399999999999</v>
+        <v>8.8217</v>
       </c>
       <c r="H13" t="n">
-        <v>8.512700000000001</v>
+        <v>3.8206</v>
       </c>
       <c r="I13" t="n">
-        <v>12.5667</v>
+        <v>10.047</v>
       </c>
       <c r="J13" t="n">
-        <v>9.118499999999999</v>
+        <v>10.8263</v>
       </c>
       <c r="K13" t="n">
-        <v>6.7973</v>
+        <v>5.5008</v>
       </c>
       <c r="L13" t="n">
-        <v>9.702</v>
+        <v>13.8603</v>
       </c>
       <c r="M13" t="n">
-        <v>15.9181</v>
+        <v>13.2133</v>
       </c>
       <c r="N13" t="n">
-        <v>11.3809</v>
+        <v>6.6613</v>
       </c>
       <c r="O13" t="n">
-        <v>15.4766</v>
+        <v>3.8707</v>
       </c>
       <c r="P13" t="n">
-        <v>4.6355</v>
+        <v>10.4183</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.5395</v>
+        <v>14.7572</v>
       </c>
       <c r="R13" t="n">
-        <v>18.2403</v>
+        <v>4.0138</v>
       </c>
       <c r="S13" t="n">
-        <v>12.9628</v>
+        <v>9.06</v>
       </c>
       <c r="T13" t="n">
-        <v>10.7962</v>
+        <v>9.994400000000001</v>
       </c>
       <c r="U13" t="n">
-        <v>5.7109</v>
+        <v>14.8719</v>
       </c>
       <c r="V13" t="n">
-        <v>16.1265</v>
+        <v>10.2107</v>
       </c>
       <c r="W13" t="n">
-        <v>7.8958</v>
+        <v>5.1325</v>
       </c>
       <c r="X13" t="n">
-        <v>10.5755</v>
+        <v>7.479</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.8787</v>
+        <v>5.6588</v>
       </c>
       <c r="Z13" t="n">
-        <v>17.7374</v>
+        <v>8.959099999999999</v>
       </c>
       <c r="AA13" t="n">
-        <v>16.2236</v>
+        <v>3.5062</v>
       </c>
       <c r="AB13" t="n">
-        <v>16.6464</v>
+        <v>13.39</v>
       </c>
       <c r="AC13" t="n">
-        <v>14.6744</v>
+        <v>12.3709</v>
       </c>
       <c r="AD13" t="n">
-        <v>8.0093</v>
+        <v>12.0611</v>
       </c>
       <c r="AE13" t="n">
-        <v>12.9482</v>
+        <v>9.494300000000001</v>
       </c>
       <c r="AF13" t="n">
-        <v>13.1946</v>
+        <v>5.4663</v>
       </c>
       <c r="AG13" t="n">
-        <v>16.4697</v>
+        <v>5.5502</v>
       </c>
       <c r="AH13" t="n">
-        <v>12.6808</v>
+        <v>3.4419</v>
       </c>
       <c r="AI13" t="n">
-        <v>9.2781</v>
+        <v>8.9589</v>
       </c>
       <c r="AJ13" t="n">
-        <v>6.5027</v>
+        <v>12.0371</v>
       </c>
       <c r="AK13" t="n">
-        <v>5.9949</v>
+        <v>10.7181</v>
       </c>
       <c r="AL13" t="n">
-        <v>7.5791</v>
+        <v>9.023300000000001</v>
       </c>
       <c r="AM13" t="n">
-        <v>17.2836</v>
+        <v>10.6212</v>
       </c>
       <c r="AN13" t="n">
-        <v>8.3634</v>
+        <v>9.071199999999999</v>
       </c>
       <c r="AO13" t="n">
-        <v>8.857200000000001</v>
+        <v>12.9863</v>
       </c>
     </row>
     <row r="14">
@@ -5005,124 +5005,124 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>21.3734</v>
+        <v>12.4603</v>
       </c>
       <c r="C14" t="n">
-        <v>11.4866</v>
+        <v>9.568300000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>22.4376</v>
+        <v>10.8513</v>
       </c>
       <c r="E14" t="n">
-        <v>35.8103</v>
+        <v>9.043100000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>42.4717</v>
+        <v>1.5831</v>
       </c>
       <c r="G14" t="n">
-        <v>19.9201</v>
+        <v>9.116</v>
       </c>
       <c r="H14" t="n">
-        <v>14.6567</v>
+        <v>4.3755</v>
       </c>
       <c r="I14" t="n">
-        <v>34.8578</v>
+        <v>10.2832</v>
       </c>
       <c r="J14" t="n">
-        <v>19.4525</v>
+        <v>10.8899</v>
       </c>
       <c r="K14" t="n">
-        <v>11.1731</v>
+        <v>6.2034</v>
       </c>
       <c r="L14" t="n">
-        <v>24.3985</v>
+        <v>14.0918</v>
       </c>
       <c r="M14" t="n">
-        <v>45.5004</v>
+        <v>12.9508</v>
       </c>
       <c r="N14" t="n">
-        <v>25.9177</v>
+        <v>7.0145</v>
       </c>
       <c r="O14" t="n">
-        <v>38.748</v>
+        <v>4.4935</v>
       </c>
       <c r="P14" t="n">
-        <v>5.0485</v>
+        <v>10.7549</v>
       </c>
       <c r="Q14" t="n">
-        <v>13.917</v>
+        <v>14.9788</v>
       </c>
       <c r="R14" t="n">
-        <v>46.0995</v>
+        <v>4.5172</v>
       </c>
       <c r="S14" t="n">
-        <v>36.9273</v>
+        <v>9.389799999999999</v>
       </c>
       <c r="T14" t="n">
-        <v>26.4746</v>
+        <v>10.4073</v>
       </c>
       <c r="U14" t="n">
-        <v>10.5436</v>
+        <v>15.0736</v>
       </c>
       <c r="V14" t="n">
-        <v>40.1778</v>
+        <v>9.8451</v>
       </c>
       <c r="W14" t="n">
-        <v>13.5573</v>
+        <v>5.3486</v>
       </c>
       <c r="X14" t="n">
-        <v>23.8085</v>
+        <v>7.662</v>
       </c>
       <c r="Y14" t="n">
-        <v>21.4397</v>
+        <v>6.1648</v>
       </c>
       <c r="Z14" t="n">
-        <v>48.453</v>
+        <v>9.159800000000001</v>
       </c>
       <c r="AA14" t="n">
-        <v>40.9696</v>
+        <v>3.9388</v>
       </c>
       <c r="AB14" t="n">
-        <v>42.9073</v>
+        <v>13.4215</v>
       </c>
       <c r="AC14" t="n">
-        <v>33.963</v>
+        <v>12.3409</v>
       </c>
       <c r="AD14" t="n">
-        <v>16.0836</v>
+        <v>12.1179</v>
       </c>
       <c r="AE14" t="n">
-        <v>32.5882</v>
+        <v>9.7502</v>
       </c>
       <c r="AF14" t="n">
-        <v>31.6345</v>
+        <v>5.9303</v>
       </c>
       <c r="AG14" t="n">
-        <v>39.1364</v>
+        <v>5.5198</v>
       </c>
       <c r="AH14" t="n">
-        <v>33.8808</v>
+        <v>4.0583</v>
       </c>
       <c r="AI14" t="n">
-        <v>20.0195</v>
+        <v>8.7323</v>
       </c>
       <c r="AJ14" t="n">
-        <v>9.8301</v>
+        <v>11.7978</v>
       </c>
       <c r="AK14" t="n">
-        <v>10.1917</v>
+        <v>10.7515</v>
       </c>
       <c r="AL14" t="n">
-        <v>14.7566</v>
+        <v>9.3439</v>
       </c>
       <c r="AM14" t="n">
-        <v>42.2823</v>
+        <v>10.8666</v>
       </c>
       <c r="AN14" t="n">
-        <v>16.9064</v>
+        <v>9.1836</v>
       </c>
       <c r="AO14" t="n">
-        <v>22.2069</v>
+        <v>13.1325</v>
       </c>
     </row>
     <row r="15">
@@ -5132,124 +5132,124 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>14.0616</v>
+        <v>39.5897</v>
       </c>
       <c r="C15" t="n">
-        <v>7.5103</v>
+        <v>27.6511</v>
       </c>
       <c r="D15" t="n">
-        <v>14.0733</v>
+        <v>34.354</v>
       </c>
       <c r="E15" t="n">
-        <v>21.8985</v>
+        <v>25.5209</v>
       </c>
       <c r="F15" t="n">
-        <v>24.9634</v>
+        <v>2.4607</v>
       </c>
       <c r="G15" t="n">
-        <v>13.1619</v>
+        <v>26.8841</v>
       </c>
       <c r="H15" t="n">
-        <v>11.6734</v>
+        <v>7.5042</v>
       </c>
       <c r="I15" t="n">
-        <v>20.6781</v>
+        <v>29.8989</v>
       </c>
       <c r="J15" t="n">
-        <v>13.1775</v>
+        <v>32.6406</v>
       </c>
       <c r="K15" t="n">
-        <v>8.8803</v>
+        <v>14.3037</v>
       </c>
       <c r="L15" t="n">
-        <v>15.365</v>
+        <v>43.0406</v>
       </c>
       <c r="M15" t="n">
-        <v>26.7114</v>
+        <v>42.2766</v>
       </c>
       <c r="N15" t="n">
-        <v>17.0706</v>
+        <v>18.8868</v>
       </c>
       <c r="O15" t="n">
-        <v>24.456</v>
+        <v>8.7987</v>
       </c>
       <c r="P15" t="n">
-        <v>5.2314</v>
+        <v>31.1006</v>
       </c>
       <c r="Q15" t="n">
-        <v>10.1787</v>
+        <v>45.2385</v>
       </c>
       <c r="R15" t="n">
-        <v>28.9595</v>
+        <v>9.1358</v>
       </c>
       <c r="S15" t="n">
-        <v>22.315</v>
+        <v>25.8061</v>
       </c>
       <c r="T15" t="n">
-        <v>16.8362</v>
+        <v>28.0011</v>
       </c>
       <c r="U15" t="n">
-        <v>7.9379</v>
+        <v>45.0338</v>
       </c>
       <c r="V15" t="n">
-        <v>25.2756</v>
+        <v>31.0454</v>
       </c>
       <c r="W15" t="n">
-        <v>10.7202</v>
+        <v>14.8578</v>
       </c>
       <c r="X15" t="n">
-        <v>15.8391</v>
+        <v>22.741</v>
       </c>
       <c r="Y15" t="n">
-        <v>14.6716</v>
+        <v>15.3519</v>
       </c>
       <c r="Z15" t="n">
-        <v>29.1782</v>
+        <v>27.192</v>
       </c>
       <c r="AA15" t="n">
-        <v>26.3314</v>
+        <v>5.9985</v>
       </c>
       <c r="AB15" t="n">
-        <v>27.2817</v>
+        <v>42.997</v>
       </c>
       <c r="AC15" t="n">
-        <v>22.6125</v>
+        <v>39.1715</v>
       </c>
       <c r="AD15" t="n">
-        <v>11.3465</v>
+        <v>36.263</v>
       </c>
       <c r="AE15" t="n">
-        <v>20.744</v>
+        <v>28.0836</v>
       </c>
       <c r="AF15" t="n">
-        <v>20.6325</v>
+        <v>13.9997</v>
       </c>
       <c r="AG15" t="n">
-        <v>25.3787</v>
+        <v>14.2994</v>
       </c>
       <c r="AH15" t="n">
-        <v>20.356</v>
+        <v>5.7515</v>
       </c>
       <c r="AI15" t="n">
-        <v>14.1993</v>
+        <v>28.1342</v>
       </c>
       <c r="AJ15" t="n">
-        <v>8.6134</v>
+        <v>36.6483</v>
       </c>
       <c r="AK15" t="n">
-        <v>8.083</v>
+        <v>34.1508</v>
       </c>
       <c r="AL15" t="n">
-        <v>10.3023</v>
+        <v>24.701</v>
       </c>
       <c r="AM15" t="n">
-        <v>27.1062</v>
+        <v>30.4732</v>
       </c>
       <c r="AN15" t="n">
-        <v>12.2821</v>
+        <v>26.614</v>
       </c>
       <c r="AO15" t="n">
-        <v>13.8448</v>
+        <v>39.4853</v>
       </c>
     </row>
   </sheetData>
